--- a/templates/employees_template.xlsx
+++ b/templates/employees_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C60466-0003-44BC-88BC-C943D06B5079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C734FB-6F24-4CA3-B318-8733E205DFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F904457F-16AD-444D-845F-44164BD1FCE4}"/>
   </bookViews>
@@ -968,10 +968,1569 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -1408,8 +2967,8 @@
   </sheetPr>
   <dimension ref="B1:AL483"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17734,6 +19293,58 @@
     <mergeCell ref="B12:AL12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G13:AK32 G34:AK39 G41:AK46 G48:AK53 G55:AK60">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>"FO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"FR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+      <formula>"FE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>"FOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"BX"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>"FI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"FJ"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"LC"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"LP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"LN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"""DP"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:AK10">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"DOM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"SÁB"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/templates/employees_template.xlsx
+++ b/templates/employees_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C734FB-6F24-4CA3-B318-8733E205DFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B63860B-22D0-4116-B7D3-2405AC0D6A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F904457F-16AD-444D-845F-44164BD1FCE4}"/>
   </bookViews>
@@ -968,7 +968,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="134">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1143,6 +1154,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2967,8 +2989,8 @@
   </sheetPr>
   <dimension ref="B1:AL483"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19293,52 +19315,8 @@
     <mergeCell ref="B12:AL12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G13:AK32 G34:AK39 G41:AK46 G48:AK53 G55:AK60">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
-      <formula>"FO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"FR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
-      <formula>"FE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>"FOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
-      <formula>"BX"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
-      <formula>"FI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
-      <formula>"FJ"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>"LC"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"LP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"LN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"""DP"""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G10:AK10">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"DOM"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">

--- a/templates/employees_template.xlsx
+++ b/templates/employees_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B63860B-22D0-4116-B7D3-2405AC0D6A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E3622D-1779-400D-B3E1-F91AF1211EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F904457F-16AD-444D-845F-44164BD1FCE4}"/>
   </bookViews>
@@ -995,6 +995,28 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1154,28 +1176,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2989,8 +2989,8 @@
   </sheetPr>
   <dimension ref="B1:AL483"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19315,14 +19315,6 @@
     <mergeCell ref="B12:AL12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G10:AK10">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"DOM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"SÁB"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/templates/employees_template.xlsx
+++ b/templates/employees_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dep. Informática\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63464978-75CE-43BB-984E-F4D976BC5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,14 +135,14 @@
     <t>O Comandante</t>
   </si>
   <si>
-    <t>Carga Mensal, pelo decreto lei (Lei n.º 7/2009)</t>
+    <t>Carga Mensal, pelo decreto lei (Lei n.º 7/2009) do CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF69B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,9 +710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -785,7 +772,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,10 +784,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -820,67 +804,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,13 +822,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,55 +861,91 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,6 +956,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF69B4"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
@@ -989,13 +977,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1027,8 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="714375" cy="714375"/>
+          <a:off x="190501" y="95250"/>
+          <a:ext cx="571500" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1039,8 +1027,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1071,8 +1059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11839574" y="0"/>
-          <a:ext cx="914401" cy="857250"/>
+          <a:off x="12049125" y="0"/>
+          <a:ext cx="704850" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,2084 +1388,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM483"/>
+  <dimension ref="A1:AM480"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="37" width="4.25" customWidth="1"/>
-    <col min="38" max="38" width="9.125" customWidth="1"/>
-    <col min="39" max="39" width="2.875" customWidth="1"/>
-    <col min="40" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="2.85546875" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="3.75" customHeight="1"/>
-    <row r="2" spans="2:38" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:38"/>
-    <row r="4" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B4" s="74" t="s">
+    <row r="1" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-    </row>
-    <row r="5" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-    </row>
-    <row r="6" spans="2:38" ht="3.75" customHeight="1"/>
-    <row r="7" spans="2:38" ht="7.5" customHeight="1">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-    </row>
-    <row r="8" spans="2:38" ht="7.5" customHeight="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-    </row>
-    <row r="9" spans="2:38" ht="3.75" customHeight="1"/>
-    <row r="10" spans="2:38">
-      <c r="B10" s="76" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+    </row>
+    <row r="5" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+    </row>
+    <row r="6" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+    </row>
+    <row r="8" spans="2:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+    </row>
+    <row r="9" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="84" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:38">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="85"/>
-    </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="71" t="s">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="50"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="73"/>
-    </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="16"/>
-    </row>
-    <row r="14" spans="2:38">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="19"/>
-    </row>
-    <row r="15" spans="2:38">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="19"/>
-    </row>
-    <row r="16" spans="2:38">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="19"/>
-    </row>
-    <row r="17" spans="2:38">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="19"/>
-    </row>
-    <row r="18" spans="2:38">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="19"/>
-    </row>
-    <row r="19" spans="2:38">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="19"/>
-    </row>
-    <row r="20" spans="2:38">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="19"/>
-    </row>
-    <row r="21" spans="2:38">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="19"/>
-    </row>
-    <row r="22" spans="2:38">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="19"/>
-    </row>
-    <row r="23" spans="2:38">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="19"/>
-    </row>
-    <row r="24" spans="2:38">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="19"/>
-    </row>
-    <row r="25" spans="2:38">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="19"/>
-    </row>
-    <row r="26" spans="2:38">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="19"/>
-    </row>
-    <row r="27" spans="2:38">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="19"/>
-    </row>
-    <row r="28" spans="2:38">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="19"/>
-    </row>
-    <row r="29" spans="2:38">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="19"/>
-    </row>
-    <row r="30" spans="2:38">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="19"/>
-    </row>
-    <row r="31" spans="2:38">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="19"/>
-    </row>
-    <row r="32" spans="2:38">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="22"/>
-    </row>
-    <row r="33" spans="2:38">
-      <c r="B33" s="68" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="53"/>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="15"/>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="18"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="18"/>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="18"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="18"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="18"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="18"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="18"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="18"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="18"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="18"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="18"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="18"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="18"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="18"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="18"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="18"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="18"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="18"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="21"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B33" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="70"/>
-    </row>
-    <row r="34" spans="2:38">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="57"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="11"/>
-    </row>
-    <row r="35" spans="2:38">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="10"/>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="12"/>
-    </row>
-    <row r="36" spans="2:38">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="11"/>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="12"/>
-    </row>
-    <row r="37" spans="2:38">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="11"/>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="12"/>
-    </row>
-    <row r="38" spans="2:38">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="11"/>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="12"/>
-    </row>
-    <row r="39" spans="2:38">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="11"/>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="13"/>
-    </row>
-    <row r="40" spans="2:38">
-      <c r="B40" s="71" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="12"/>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B40" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="73"/>
-    </row>
-    <row r="41" spans="2:38">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="53"/>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="11"/>
-    </row>
-    <row r="42" spans="2:38">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="10"/>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="12"/>
-    </row>
-    <row r="43" spans="2:38">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="11"/>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="12"/>
-    </row>
-    <row r="44" spans="2:38">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="11"/>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
-      <c r="AK44" s="9"/>
-      <c r="AL44" s="12"/>
-    </row>
-    <row r="45" spans="2:38">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="11"/>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="13"/>
-    </row>
-    <row r="46" spans="2:38">
-      <c r="B46" s="71" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="12"/>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B46" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="72"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="73"/>
-    </row>
-    <row r="47" spans="2:38">
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="53"/>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="11"/>
-    </row>
-    <row r="48" spans="2:38">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="10"/>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="12"/>
-    </row>
-    <row r="49" spans="2:38">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="11"/>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="12"/>
-    </row>
-    <row r="50" spans="2:38">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="11"/>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9"/>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="12"/>
-    </row>
-    <row r="51" spans="2:38">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="11"/>
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="13"/>
-    </row>
-    <row r="52" spans="2:38">
-      <c r="B52" s="71" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="12"/>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="72"/>
-      <c r="W52" s="72"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="72"/>
-      <c r="Z52" s="72"/>
-      <c r="AA52" s="72"/>
-      <c r="AB52" s="72"/>
-      <c r="AC52" s="72"/>
-      <c r="AD52" s="72"/>
-      <c r="AE52" s="72"/>
-      <c r="AF52" s="72"/>
-      <c r="AG52" s="72"/>
-      <c r="AH52" s="72"/>
-      <c r="AI52" s="72"/>
-      <c r="AJ52" s="72"/>
-      <c r="AK52" s="72"/>
-      <c r="AL52" s="73"/>
-    </row>
-    <row r="53" spans="2:38">
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="53"/>
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="11"/>
-    </row>
-    <row r="54" spans="2:38">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="10"/>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9"/>
-      <c r="AJ54" s="9"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="12"/>
-    </row>
-    <row r="55" spans="2:38">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="11"/>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9"/>
-      <c r="AJ55" s="9"/>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="12"/>
-    </row>
-    <row r="56" spans="2:38">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="11"/>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="12"/>
-    </row>
-    <row r="57" spans="2:38">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="11"/>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="13"/>
-    </row>
-    <row r="58" spans="2:38" ht="3.75" customHeight="1">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="12"/>
+    </row>
+    <row r="58" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3510,69 +3498,69 @@
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
     </row>
-    <row r="59" spans="2:38">
-      <c r="B59" s="44" t="s">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B59" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="G59" s="23" t="s">
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73"/>
+      <c r="G59" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="67" t="s">
+      <c r="H59" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="24" t="s">
+      <c r="M59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N59" s="67" t="s">
+      <c r="N59" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="25" t="s">
+      <c r="S59" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T59" s="67" t="s">
+      <c r="T59" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="26" t="s">
+      <c r="Y59" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" s="67" t="s">
+      <c r="Z59" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="41" t="s">
+      <c r="AE59" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="43"/>
-    </row>
-    <row r="60" spans="2:38" ht="3.75" customHeight="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
+      <c r="AF59" s="69"/>
+      <c r="AG59" s="69"/>
+      <c r="AH59" s="69"/>
+      <c r="AI59" s="69"/>
+      <c r="AJ59" s="69"/>
+      <c r="AK59" s="69"/>
+      <c r="AL59" s="70"/>
+    </row>
+    <row r="60" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="74"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3598,71 +3586,71 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="6"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7"/>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="39"/>
-    </row>
-    <row r="61" spans="2:38">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="67" t="s">
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="37"/>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B61" s="74"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="76"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="31" t="s">
+      <c r="M61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="67" t="s">
+      <c r="N61" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="28" t="s">
+      <c r="S61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="67" t="s">
+      <c r="T61" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="29" t="s">
+      <c r="Y61" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z61" s="67" t="s">
+      <c r="Z61" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="6"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="7"/>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="39"/>
-    </row>
-    <row r="62" spans="2:38" ht="3.75" customHeight="1">
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="38"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="37"/>
+    </row>
+    <row r="62" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3688,75 +3676,75 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="7"/>
-      <c r="AG62" s="7"/>
-      <c r="AH62" s="7"/>
-      <c r="AI62" s="7"/>
-      <c r="AJ62" s="7"/>
-      <c r="AK62" s="7"/>
-      <c r="AL62" s="39"/>
-    </row>
-    <row r="63" spans="2:38">
-      <c r="B63" s="50" t="s">
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="37"/>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B63" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
-      <c r="G63" s="30" t="s">
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="G63" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="67" t="s">
+      <c r="H63" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="30" t="s">
+      <c r="M63" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="67" t="s">
+      <c r="N63" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="30" t="s">
+      <c r="S63" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T63" s="67" t="s">
+      <c r="T63" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="30" t="s">
+      <c r="Y63" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Z63" s="67" t="s">
+      <c r="Z63" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="6"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="7"/>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="39"/>
-    </row>
-    <row r="64" spans="2:38" ht="3.75" customHeight="1">
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="37"/>
+    </row>
+    <row r="64" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3782,65 +3770,65 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="7"/>
-      <c r="AG64" s="7"/>
-      <c r="AH64" s="7"/>
-      <c r="AI64" s="7"/>
-      <c r="AJ64" s="7"/>
-      <c r="AK64" s="7"/>
-      <c r="AL64" s="39"/>
-    </row>
-    <row r="65" spans="2:38">
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-      <c r="G65" s="30" t="s">
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="37"/>
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="G65" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="67" t="s">
+      <c r="H65" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="30" t="s">
+      <c r="M65" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N65" s="67" t="s">
+      <c r="N65" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="32" t="s">
+      <c r="S65" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="T65" s="67" t="s">
+      <c r="T65" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="64"/>
-      <c r="AA65" s="64"/>
-      <c r="AB65" s="64"/>
-      <c r="AC65" s="64"/>
+      <c r="Y65" s="31"/>
+      <c r="Z65" s="85"/>
+      <c r="AA65" s="85"/>
+      <c r="AB65" s="85"/>
+      <c r="AC65" s="85"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="40"/>
-    </row>
-    <row r="66" spans="2:38">
+      <c r="AE65" s="32"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="38"/>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3873,7 +3861,7 @@
       <c r="AJ66" s="2"/>
       <c r="AK66" s="2"/>
     </row>
-    <row r="67" spans="2:38">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3906,7 +3894,7 @@
       <c r="AJ67" s="2"/>
       <c r="AK67" s="2"/>
     </row>
-    <row r="68" spans="2:38" hidden="1">
+    <row r="68" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3939,7 +3927,7 @@
       <c r="AJ68" s="2"/>
       <c r="AK68" s="2"/>
     </row>
-    <row r="69" spans="2:38" hidden="1">
+    <row r="69" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3972,7 +3960,7 @@
       <c r="AJ69" s="2"/>
       <c r="AK69" s="2"/>
     </row>
-    <row r="70" spans="2:38" hidden="1">
+    <row r="70" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4005,7 +3993,7 @@
       <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
     </row>
-    <row r="71" spans="2:38" hidden="1">
+    <row r="71" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -4038,7 +4026,7 @@
       <c r="AJ71" s="2"/>
       <c r="AK71" s="2"/>
     </row>
-    <row r="72" spans="2:38" hidden="1">
+    <row r="72" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4071,7 +4059,7 @@
       <c r="AJ72" s="2"/>
       <c r="AK72" s="2"/>
     </row>
-    <row r="73" spans="2:38" hidden="1">
+    <row r="73" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4104,7 +4092,7 @@
       <c r="AJ73" s="2"/>
       <c r="AK73" s="2"/>
     </row>
-    <row r="74" spans="2:38" hidden="1">
+    <row r="74" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4137,7 +4125,7 @@
       <c r="AJ74" s="2"/>
       <c r="AK74" s="2"/>
     </row>
-    <row r="75" spans="2:38" hidden="1">
+    <row r="75" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -4170,7 +4158,7 @@
       <c r="AJ75" s="2"/>
       <c r="AK75" s="2"/>
     </row>
-    <row r="76" spans="2:38" hidden="1">
+    <row r="76" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4203,7 +4191,7 @@
       <c r="AJ76" s="2"/>
       <c r="AK76" s="2"/>
     </row>
-    <row r="77" spans="2:38" hidden="1">
+    <row r="77" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4236,7 +4224,7 @@
       <c r="AJ77" s="2"/>
       <c r="AK77" s="2"/>
     </row>
-    <row r="78" spans="2:38" hidden="1">
+    <row r="78" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4269,7 +4257,7 @@
       <c r="AJ78" s="2"/>
       <c r="AK78" s="2"/>
     </row>
-    <row r="79" spans="2:38" hidden="1">
+    <row r="79" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -4302,7 +4290,7 @@
       <c r="AJ79" s="2"/>
       <c r="AK79" s="2"/>
     </row>
-    <row r="80" spans="2:38" hidden="1">
+    <row r="80" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4335,7 +4323,7 @@
       <c r="AJ80" s="2"/>
       <c r="AK80" s="2"/>
     </row>
-    <row r="81" spans="7:37" hidden="1">
+    <row r="81" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4368,7 +4356,7 @@
       <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
     </row>
-    <row r="82" spans="7:37" hidden="1">
+    <row r="82" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4401,7 +4389,7 @@
       <c r="AJ82" s="2"/>
       <c r="AK82" s="2"/>
     </row>
-    <row r="83" spans="7:37" hidden="1">
+    <row r="83" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4434,7 +4422,7 @@
       <c r="AJ83" s="2"/>
       <c r="AK83" s="2"/>
     </row>
-    <row r="84" spans="7:37" hidden="1">
+    <row r="84" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4467,7 +4455,7 @@
       <c r="AJ84" s="2"/>
       <c r="AK84" s="2"/>
     </row>
-    <row r="85" spans="7:37" hidden="1">
+    <row r="85" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4500,7 +4488,7 @@
       <c r="AJ85" s="2"/>
       <c r="AK85" s="2"/>
     </row>
-    <row r="86" spans="7:37" hidden="1">
+    <row r="86" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4533,7 +4521,7 @@
       <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
     </row>
-    <row r="87" spans="7:37" hidden="1">
+    <row r="87" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4566,7 +4554,7 @@
       <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
     </row>
-    <row r="88" spans="7:37" hidden="1">
+    <row r="88" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -4599,7 +4587,7 @@
       <c r="AJ88" s="2"/>
       <c r="AK88" s="2"/>
     </row>
-    <row r="89" spans="7:37" hidden="1">
+    <row r="89" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -4632,7 +4620,7 @@
       <c r="AJ89" s="2"/>
       <c r="AK89" s="2"/>
     </row>
-    <row r="90" spans="7:37" hidden="1">
+    <row r="90" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4665,7 +4653,7 @@
       <c r="AJ90" s="2"/>
       <c r="AK90" s="2"/>
     </row>
-    <row r="91" spans="7:37" hidden="1">
+    <row r="91" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4698,7 +4686,7 @@
       <c r="AJ91" s="2"/>
       <c r="AK91" s="2"/>
     </row>
-    <row r="92" spans="7:37" hidden="1">
+    <row r="92" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4731,7 +4719,7 @@
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
     </row>
-    <row r="93" spans="7:37" hidden="1">
+    <row r="93" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4764,7 +4752,7 @@
       <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
     </row>
-    <row r="94" spans="7:37" hidden="1">
+    <row r="94" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -4797,7 +4785,7 @@
       <c r="AJ94" s="2"/>
       <c r="AK94" s="2"/>
     </row>
-    <row r="95" spans="7:37" hidden="1">
+    <row r="95" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -4830,7 +4818,7 @@
       <c r="AJ95" s="2"/>
       <c r="AK95" s="2"/>
     </row>
-    <row r="96" spans="7:37" hidden="1">
+    <row r="96" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4863,7 +4851,7 @@
       <c r="AJ96" s="2"/>
       <c r="AK96" s="2"/>
     </row>
-    <row r="97" spans="7:37" hidden="1">
+    <row r="97" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4896,7 +4884,7 @@
       <c r="AJ97" s="2"/>
       <c r="AK97" s="2"/>
     </row>
-    <row r="98" spans="7:37" hidden="1">
+    <row r="98" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -4929,7 +4917,7 @@
       <c r="AJ98" s="2"/>
       <c r="AK98" s="2"/>
     </row>
-    <row r="99" spans="7:37" hidden="1">
+    <row r="99" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4962,7 +4950,7 @@
       <c r="AJ99" s="2"/>
       <c r="AK99" s="2"/>
     </row>
-    <row r="100" spans="7:37" hidden="1">
+    <row r="100" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -4995,7 +4983,7 @@
       <c r="AJ100" s="2"/>
       <c r="AK100" s="2"/>
     </row>
-    <row r="101" spans="7:37" hidden="1">
+    <row r="101" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5028,7 +5016,7 @@
       <c r="AJ101" s="2"/>
       <c r="AK101" s="2"/>
     </row>
-    <row r="102" spans="7:37" hidden="1">
+    <row r="102" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -5061,7 +5049,7 @@
       <c r="AJ102" s="2"/>
       <c r="AK102" s="2"/>
     </row>
-    <row r="103" spans="7:37" hidden="1">
+    <row r="103" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -5094,7 +5082,7 @@
       <c r="AJ103" s="2"/>
       <c r="AK103" s="2"/>
     </row>
-    <row r="104" spans="7:37" hidden="1">
+    <row r="104" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5127,7 +5115,7 @@
       <c r="AJ104" s="2"/>
       <c r="AK104" s="2"/>
     </row>
-    <row r="105" spans="7:37" hidden="1">
+    <row r="105" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -5160,7 +5148,7 @@
       <c r="AJ105" s="2"/>
       <c r="AK105" s="2"/>
     </row>
-    <row r="106" spans="7:37" hidden="1">
+    <row r="106" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5193,7 +5181,7 @@
       <c r="AJ106" s="2"/>
       <c r="AK106" s="2"/>
     </row>
-    <row r="107" spans="7:37" hidden="1">
+    <row r="107" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -5226,7 +5214,7 @@
       <c r="AJ107" s="2"/>
       <c r="AK107" s="2"/>
     </row>
-    <row r="108" spans="7:37" hidden="1">
+    <row r="108" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5259,7 +5247,7 @@
       <c r="AJ108" s="2"/>
       <c r="AK108" s="2"/>
     </row>
-    <row r="109" spans="7:37" hidden="1">
+    <row r="109" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5292,7 +5280,7 @@
       <c r="AJ109" s="2"/>
       <c r="AK109" s="2"/>
     </row>
-    <row r="110" spans="7:37" hidden="1">
+    <row r="110" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5325,7 +5313,7 @@
       <c r="AJ110" s="2"/>
       <c r="AK110" s="2"/>
     </row>
-    <row r="111" spans="7:37" hidden="1">
+    <row r="111" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -5358,7 +5346,7 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="2"/>
     </row>
-    <row r="112" spans="7:37" hidden="1">
+    <row r="112" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5391,7 +5379,7 @@
       <c r="AJ112" s="2"/>
       <c r="AK112" s="2"/>
     </row>
-    <row r="113" spans="7:37" hidden="1">
+    <row r="113" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5424,7 +5412,7 @@
       <c r="AJ113" s="2"/>
       <c r="AK113" s="2"/>
     </row>
-    <row r="114" spans="7:37" hidden="1">
+    <row r="114" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5457,7 +5445,7 @@
       <c r="AJ114" s="2"/>
       <c r="AK114" s="2"/>
     </row>
-    <row r="115" spans="7:37" hidden="1">
+    <row r="115" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -5490,7 +5478,7 @@
       <c r="AJ115" s="2"/>
       <c r="AK115" s="2"/>
     </row>
-    <row r="116" spans="7:37" hidden="1">
+    <row r="116" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5523,7 +5511,7 @@
       <c r="AJ116" s="2"/>
       <c r="AK116" s="2"/>
     </row>
-    <row r="117" spans="7:37" hidden="1">
+    <row r="117" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5556,7 +5544,7 @@
       <c r="AJ117" s="2"/>
       <c r="AK117" s="2"/>
     </row>
-    <row r="118" spans="7:37" hidden="1">
+    <row r="118" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5589,7 +5577,7 @@
       <c r="AJ118" s="2"/>
       <c r="AK118" s="2"/>
     </row>
-    <row r="119" spans="7:37" hidden="1">
+    <row r="119" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -5622,7 +5610,7 @@
       <c r="AJ119" s="2"/>
       <c r="AK119" s="2"/>
     </row>
-    <row r="120" spans="7:37" hidden="1">
+    <row r="120" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -5655,7 +5643,7 @@
       <c r="AJ120" s="2"/>
       <c r="AK120" s="2"/>
     </row>
-    <row r="121" spans="7:37" hidden="1">
+    <row r="121" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -5688,7 +5676,7 @@
       <c r="AJ121" s="2"/>
       <c r="AK121" s="2"/>
     </row>
-    <row r="122" spans="7:37" hidden="1">
+    <row r="122" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -5721,7 +5709,7 @@
       <c r="AJ122" s="2"/>
       <c r="AK122" s="2"/>
     </row>
-    <row r="123" spans="7:37" hidden="1">
+    <row r="123" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -5754,7 +5742,7 @@
       <c r="AJ123" s="2"/>
       <c r="AK123" s="2"/>
     </row>
-    <row r="124" spans="7:37" hidden="1">
+    <row r="124" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5787,7 +5775,7 @@
       <c r="AJ124" s="2"/>
       <c r="AK124" s="2"/>
     </row>
-    <row r="125" spans="7:37" hidden="1">
+    <row r="125" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -5820,7 +5808,7 @@
       <c r="AJ125" s="2"/>
       <c r="AK125" s="2"/>
     </row>
-    <row r="126" spans="7:37" hidden="1">
+    <row r="126" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5853,7 +5841,7 @@
       <c r="AJ126" s="2"/>
       <c r="AK126" s="2"/>
     </row>
-    <row r="127" spans="7:37" hidden="1">
+    <row r="127" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -5886,7 +5874,7 @@
       <c r="AJ127" s="2"/>
       <c r="AK127" s="2"/>
     </row>
-    <row r="128" spans="7:37" hidden="1">
+    <row r="128" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5919,7 +5907,7 @@
       <c r="AJ128" s="2"/>
       <c r="AK128" s="2"/>
     </row>
-    <row r="129" spans="7:37" hidden="1">
+    <row r="129" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5952,7 +5940,7 @@
       <c r="AJ129" s="2"/>
       <c r="AK129" s="2"/>
     </row>
-    <row r="130" spans="7:37" hidden="1">
+    <row r="130" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -5985,7 +5973,7 @@
       <c r="AJ130" s="2"/>
       <c r="AK130" s="2"/>
     </row>
-    <row r="131" spans="7:37" hidden="1">
+    <row r="131" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -6018,7 +6006,7 @@
       <c r="AJ131" s="2"/>
       <c r="AK131" s="2"/>
     </row>
-    <row r="132" spans="7:37" hidden="1">
+    <row r="132" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -6051,7 +6039,7 @@
       <c r="AJ132" s="2"/>
       <c r="AK132" s="2"/>
     </row>
-    <row r="133" spans="7:37" hidden="1">
+    <row r="133" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -6084,7 +6072,7 @@
       <c r="AJ133" s="2"/>
       <c r="AK133" s="2"/>
     </row>
-    <row r="134" spans="7:37" hidden="1">
+    <row r="134" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -6117,7 +6105,7 @@
       <c r="AJ134" s="2"/>
       <c r="AK134" s="2"/>
     </row>
-    <row r="135" spans="7:37" hidden="1">
+    <row r="135" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -6150,7 +6138,7 @@
       <c r="AJ135" s="2"/>
       <c r="AK135" s="2"/>
     </row>
-    <row r="136" spans="7:37" hidden="1">
+    <row r="136" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6183,7 +6171,7 @@
       <c r="AJ136" s="2"/>
       <c r="AK136" s="2"/>
     </row>
-    <row r="137" spans="7:37" hidden="1">
+    <row r="137" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -6216,7 +6204,7 @@
       <c r="AJ137" s="2"/>
       <c r="AK137" s="2"/>
     </row>
-    <row r="138" spans="7:37" hidden="1">
+    <row r="138" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -6249,7 +6237,7 @@
       <c r="AJ138" s="2"/>
       <c r="AK138" s="2"/>
     </row>
-    <row r="139" spans="7:37" hidden="1">
+    <row r="139" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6282,7 +6270,7 @@
       <c r="AJ139" s="2"/>
       <c r="AK139" s="2"/>
     </row>
-    <row r="140" spans="7:37" hidden="1">
+    <row r="140" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -6315,7 +6303,7 @@
       <c r="AJ140" s="2"/>
       <c r="AK140" s="2"/>
     </row>
-    <row r="141" spans="7:37" hidden="1">
+    <row r="141" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -6348,7 +6336,7 @@
       <c r="AJ141" s="2"/>
       <c r="AK141" s="2"/>
     </row>
-    <row r="142" spans="7:37" hidden="1">
+    <row r="142" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6381,7 +6369,7 @@
       <c r="AJ142" s="2"/>
       <c r="AK142" s="2"/>
     </row>
-    <row r="143" spans="7:37" hidden="1">
+    <row r="143" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6414,7 +6402,7 @@
       <c r="AJ143" s="2"/>
       <c r="AK143" s="2"/>
     </row>
-    <row r="144" spans="7:37" hidden="1">
+    <row r="144" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -6447,7 +6435,7 @@
       <c r="AJ144" s="2"/>
       <c r="AK144" s="2"/>
     </row>
-    <row r="145" spans="7:37" hidden="1">
+    <row r="145" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -6480,7 +6468,7 @@
       <c r="AJ145" s="2"/>
       <c r="AK145" s="2"/>
     </row>
-    <row r="146" spans="7:37" hidden="1">
+    <row r="146" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6513,7 +6501,7 @@
       <c r="AJ146" s="2"/>
       <c r="AK146" s="2"/>
     </row>
-    <row r="147" spans="7:37" hidden="1">
+    <row r="147" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6546,7 +6534,7 @@
       <c r="AJ147" s="2"/>
       <c r="AK147" s="2"/>
     </row>
-    <row r="148" spans="7:37" hidden="1">
+    <row r="148" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6579,7 +6567,7 @@
       <c r="AJ148" s="2"/>
       <c r="AK148" s="2"/>
     </row>
-    <row r="149" spans="7:37" hidden="1">
+    <row r="149" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6612,7 +6600,7 @@
       <c r="AJ149" s="2"/>
       <c r="AK149" s="2"/>
     </row>
-    <row r="150" spans="7:37" hidden="1">
+    <row r="150" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -6645,7 +6633,7 @@
       <c r="AJ150" s="2"/>
       <c r="AK150" s="2"/>
     </row>
-    <row r="151" spans="7:37" hidden="1">
+    <row r="151" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6678,7 +6666,7 @@
       <c r="AJ151" s="2"/>
       <c r="AK151" s="2"/>
     </row>
-    <row r="152" spans="7:37" hidden="1">
+    <row r="152" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6711,7 +6699,7 @@
       <c r="AJ152" s="2"/>
       <c r="AK152" s="2"/>
     </row>
-    <row r="153" spans="7:37" hidden="1">
+    <row r="153" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -6744,7 +6732,7 @@
       <c r="AJ153" s="2"/>
       <c r="AK153" s="2"/>
     </row>
-    <row r="154" spans="7:37" hidden="1">
+    <row r="154" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -6777,7 +6765,7 @@
       <c r="AJ154" s="2"/>
       <c r="AK154" s="2"/>
     </row>
-    <row r="155" spans="7:37" hidden="1">
+    <row r="155" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -6810,7 +6798,7 @@
       <c r="AJ155" s="2"/>
       <c r="AK155" s="2"/>
     </row>
-    <row r="156" spans="7:37" hidden="1">
+    <row r="156" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6843,7 +6831,7 @@
       <c r="AJ156" s="2"/>
       <c r="AK156" s="2"/>
     </row>
-    <row r="157" spans="7:37" hidden="1">
+    <row r="157" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6876,7 +6864,7 @@
       <c r="AJ157" s="2"/>
       <c r="AK157" s="2"/>
     </row>
-    <row r="158" spans="7:37" hidden="1">
+    <row r="158" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6909,7 +6897,7 @@
       <c r="AJ158" s="2"/>
       <c r="AK158" s="2"/>
     </row>
-    <row r="159" spans="7:37" hidden="1">
+    <row r="159" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -6942,7 +6930,7 @@
       <c r="AJ159" s="2"/>
       <c r="AK159" s="2"/>
     </row>
-    <row r="160" spans="7:37" hidden="1">
+    <row r="160" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -6975,7 +6963,7 @@
       <c r="AJ160" s="2"/>
       <c r="AK160" s="2"/>
     </row>
-    <row r="161" spans="7:37" hidden="1">
+    <row r="161" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -7008,7 +6996,7 @@
       <c r="AJ161" s="2"/>
       <c r="AK161" s="2"/>
     </row>
-    <row r="162" spans="7:37" hidden="1">
+    <row r="162" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -7041,7 +7029,7 @@
       <c r="AJ162" s="2"/>
       <c r="AK162" s="2"/>
     </row>
-    <row r="163" spans="7:37" hidden="1">
+    <row r="163" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -7074,7 +7062,7 @@
       <c r="AJ163" s="2"/>
       <c r="AK163" s="2"/>
     </row>
-    <row r="164" spans="7:37" hidden="1">
+    <row r="164" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -7107,7 +7095,7 @@
       <c r="AJ164" s="2"/>
       <c r="AK164" s="2"/>
     </row>
-    <row r="165" spans="7:37" hidden="1">
+    <row r="165" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -7140,7 +7128,7 @@
       <c r="AJ165" s="2"/>
       <c r="AK165" s="2"/>
     </row>
-    <row r="166" spans="7:37" hidden="1">
+    <row r="166" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -7173,7 +7161,7 @@
       <c r="AJ166" s="2"/>
       <c r="AK166" s="2"/>
     </row>
-    <row r="167" spans="7:37" hidden="1">
+    <row r="167" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -7206,7 +7194,7 @@
       <c r="AJ167" s="2"/>
       <c r="AK167" s="2"/>
     </row>
-    <row r="168" spans="7:37" hidden="1">
+    <row r="168" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -7239,7 +7227,7 @@
       <c r="AJ168" s="2"/>
       <c r="AK168" s="2"/>
     </row>
-    <row r="169" spans="7:37" hidden="1">
+    <row r="169" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -7272,7 +7260,7 @@
       <c r="AJ169" s="2"/>
       <c r="AK169" s="2"/>
     </row>
-    <row r="170" spans="7:37" hidden="1">
+    <row r="170" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -7305,7 +7293,7 @@
       <c r="AJ170" s="2"/>
       <c r="AK170" s="2"/>
     </row>
-    <row r="171" spans="7:37" hidden="1">
+    <row r="171" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -7338,7 +7326,7 @@
       <c r="AJ171" s="2"/>
       <c r="AK171" s="2"/>
     </row>
-    <row r="172" spans="7:37" hidden="1">
+    <row r="172" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -7371,7 +7359,7 @@
       <c r="AJ172" s="2"/>
       <c r="AK172" s="2"/>
     </row>
-    <row r="173" spans="7:37" hidden="1">
+    <row r="173" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7404,7 +7392,7 @@
       <c r="AJ173" s="2"/>
       <c r="AK173" s="2"/>
     </row>
-    <row r="174" spans="7:37" hidden="1">
+    <row r="174" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -7437,7 +7425,7 @@
       <c r="AJ174" s="2"/>
       <c r="AK174" s="2"/>
     </row>
-    <row r="175" spans="7:37" hidden="1">
+    <row r="175" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -7470,7 +7458,7 @@
       <c r="AJ175" s="2"/>
       <c r="AK175" s="2"/>
     </row>
-    <row r="176" spans="7:37" hidden="1">
+    <row r="176" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7503,7 +7491,7 @@
       <c r="AJ176" s="2"/>
       <c r="AK176" s="2"/>
     </row>
-    <row r="177" spans="7:37" hidden="1">
+    <row r="177" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -7536,7 +7524,7 @@
       <c r="AJ177" s="2"/>
       <c r="AK177" s="2"/>
     </row>
-    <row r="178" spans="7:37" hidden="1">
+    <row r="178" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7569,7 +7557,7 @@
       <c r="AJ178" s="2"/>
       <c r="AK178" s="2"/>
     </row>
-    <row r="179" spans="7:37" hidden="1">
+    <row r="179" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7602,7 +7590,7 @@
       <c r="AJ179" s="2"/>
       <c r="AK179" s="2"/>
     </row>
-    <row r="180" spans="7:37" hidden="1">
+    <row r="180" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -7635,7 +7623,7 @@
       <c r="AJ180" s="2"/>
       <c r="AK180" s="2"/>
     </row>
-    <row r="181" spans="7:37" hidden="1">
+    <row r="181" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -7668,7 +7656,7 @@
       <c r="AJ181" s="2"/>
       <c r="AK181" s="2"/>
     </row>
-    <row r="182" spans="7:37" hidden="1">
+    <row r="182" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -7701,7 +7689,7 @@
       <c r="AJ182" s="2"/>
       <c r="AK182" s="2"/>
     </row>
-    <row r="183" spans="7:37" hidden="1">
+    <row r="183" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -7734,7 +7722,7 @@
       <c r="AJ183" s="2"/>
       <c r="AK183" s="2"/>
     </row>
-    <row r="184" spans="7:37" hidden="1">
+    <row r="184" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -7767,7 +7755,7 @@
       <c r="AJ184" s="2"/>
       <c r="AK184" s="2"/>
     </row>
-    <row r="185" spans="7:37" hidden="1">
+    <row r="185" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -7800,7 +7788,7 @@
       <c r="AJ185" s="2"/>
       <c r="AK185" s="2"/>
     </row>
-    <row r="186" spans="7:37" hidden="1">
+    <row r="186" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -7833,7 +7821,7 @@
       <c r="AJ186" s="2"/>
       <c r="AK186" s="2"/>
     </row>
-    <row r="187" spans="7:37" hidden="1">
+    <row r="187" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -7866,7 +7854,7 @@
       <c r="AJ187" s="2"/>
       <c r="AK187" s="2"/>
     </row>
-    <row r="188" spans="7:37" hidden="1">
+    <row r="188" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -7899,7 +7887,7 @@
       <c r="AJ188" s="2"/>
       <c r="AK188" s="2"/>
     </row>
-    <row r="189" spans="7:37" hidden="1">
+    <row r="189" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -7932,7 +7920,7 @@
       <c r="AJ189" s="2"/>
       <c r="AK189" s="2"/>
     </row>
-    <row r="190" spans="7:37" hidden="1">
+    <row r="190" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -7965,7 +7953,7 @@
       <c r="AJ190" s="2"/>
       <c r="AK190" s="2"/>
     </row>
-    <row r="191" spans="7:37" hidden="1">
+    <row r="191" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -7998,7 +7986,7 @@
       <c r="AJ191" s="2"/>
       <c r="AK191" s="2"/>
     </row>
-    <row r="192" spans="7:37" hidden="1">
+    <row r="192" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -8031,7 +8019,7 @@
       <c r="AJ192" s="2"/>
       <c r="AK192" s="2"/>
     </row>
-    <row r="193" spans="7:37" hidden="1">
+    <row r="193" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -8064,7 +8052,7 @@
       <c r="AJ193" s="2"/>
       <c r="AK193" s="2"/>
     </row>
-    <row r="194" spans="7:37" hidden="1">
+    <row r="194" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -8097,7 +8085,7 @@
       <c r="AJ194" s="2"/>
       <c r="AK194" s="2"/>
     </row>
-    <row r="195" spans="7:37" hidden="1">
+    <row r="195" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -8130,7 +8118,7 @@
       <c r="AJ195" s="2"/>
       <c r="AK195" s="2"/>
     </row>
-    <row r="196" spans="7:37" hidden="1">
+    <row r="196" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -8163,7 +8151,7 @@
       <c r="AJ196" s="2"/>
       <c r="AK196" s="2"/>
     </row>
-    <row r="197" spans="7:37" hidden="1">
+    <row r="197" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -8196,7 +8184,7 @@
       <c r="AJ197" s="2"/>
       <c r="AK197" s="2"/>
     </row>
-    <row r="198" spans="7:37" hidden="1">
+    <row r="198" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -8229,7 +8217,7 @@
       <c r="AJ198" s="2"/>
       <c r="AK198" s="2"/>
     </row>
-    <row r="199" spans="7:37" hidden="1">
+    <row r="199" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -8262,7 +8250,7 @@
       <c r="AJ199" s="2"/>
       <c r="AK199" s="2"/>
     </row>
-    <row r="200" spans="7:37" hidden="1">
+    <row r="200" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -8295,7 +8283,7 @@
       <c r="AJ200" s="2"/>
       <c r="AK200" s="2"/>
     </row>
-    <row r="201" spans="7:37" hidden="1">
+    <row r="201" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -8328,7 +8316,7 @@
       <c r="AJ201" s="2"/>
       <c r="AK201" s="2"/>
     </row>
-    <row r="202" spans="7:37" hidden="1">
+    <row r="202" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -8361,7 +8349,7 @@
       <c r="AJ202" s="2"/>
       <c r="AK202" s="2"/>
     </row>
-    <row r="203" spans="7:37" hidden="1">
+    <row r="203" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -8394,7 +8382,7 @@
       <c r="AJ203" s="2"/>
       <c r="AK203" s="2"/>
     </row>
-    <row r="204" spans="7:37" hidden="1">
+    <row r="204" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -8427,7 +8415,7 @@
       <c r="AJ204" s="2"/>
       <c r="AK204" s="2"/>
     </row>
-    <row r="205" spans="7:37" hidden="1">
+    <row r="205" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -8460,7 +8448,7 @@
       <c r="AJ205" s="2"/>
       <c r="AK205" s="2"/>
     </row>
-    <row r="206" spans="7:37" hidden="1">
+    <row r="206" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -8493,7 +8481,7 @@
       <c r="AJ206" s="2"/>
       <c r="AK206" s="2"/>
     </row>
-    <row r="207" spans="7:37" hidden="1">
+    <row r="207" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -8526,7 +8514,7 @@
       <c r="AJ207" s="2"/>
       <c r="AK207" s="2"/>
     </row>
-    <row r="208" spans="7:37" hidden="1">
+    <row r="208" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -8559,7 +8547,7 @@
       <c r="AJ208" s="2"/>
       <c r="AK208" s="2"/>
     </row>
-    <row r="209" spans="7:37" hidden="1">
+    <row r="209" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -8592,7 +8580,7 @@
       <c r="AJ209" s="2"/>
       <c r="AK209" s="2"/>
     </row>
-    <row r="210" spans="7:37" hidden="1">
+    <row r="210" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -8625,7 +8613,7 @@
       <c r="AJ210" s="2"/>
       <c r="AK210" s="2"/>
     </row>
-    <row r="211" spans="7:37" hidden="1">
+    <row r="211" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -8658,7 +8646,7 @@
       <c r="AJ211" s="2"/>
       <c r="AK211" s="2"/>
     </row>
-    <row r="212" spans="7:37" hidden="1">
+    <row r="212" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -8691,7 +8679,7 @@
       <c r="AJ212" s="2"/>
       <c r="AK212" s="2"/>
     </row>
-    <row r="213" spans="7:37" hidden="1">
+    <row r="213" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -8724,7 +8712,7 @@
       <c r="AJ213" s="2"/>
       <c r="AK213" s="2"/>
     </row>
-    <row r="214" spans="7:37" hidden="1">
+    <row r="214" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -8757,7 +8745,7 @@
       <c r="AJ214" s="2"/>
       <c r="AK214" s="2"/>
     </row>
-    <row r="215" spans="7:37" hidden="1">
+    <row r="215" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -8790,7 +8778,7 @@
       <c r="AJ215" s="2"/>
       <c r="AK215" s="2"/>
     </row>
-    <row r="216" spans="7:37" hidden="1">
+    <row r="216" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -8823,7 +8811,7 @@
       <c r="AJ216" s="2"/>
       <c r="AK216" s="2"/>
     </row>
-    <row r="217" spans="7:37" hidden="1">
+    <row r="217" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -8856,7 +8844,7 @@
       <c r="AJ217" s="2"/>
       <c r="AK217" s="2"/>
     </row>
-    <row r="218" spans="7:37" hidden="1">
+    <row r="218" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -8889,7 +8877,7 @@
       <c r="AJ218" s="2"/>
       <c r="AK218" s="2"/>
     </row>
-    <row r="219" spans="7:37" hidden="1">
+    <row r="219" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -8922,7 +8910,7 @@
       <c r="AJ219" s="2"/>
       <c r="AK219" s="2"/>
     </row>
-    <row r="220" spans="7:37" hidden="1">
+    <row r="220" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -8955,7 +8943,7 @@
       <c r="AJ220" s="2"/>
       <c r="AK220" s="2"/>
     </row>
-    <row r="221" spans="7:37" hidden="1">
+    <row r="221" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -8988,7 +8976,7 @@
       <c r="AJ221" s="2"/>
       <c r="AK221" s="2"/>
     </row>
-    <row r="222" spans="7:37" hidden="1">
+    <row r="222" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -9021,7 +9009,7 @@
       <c r="AJ222" s="2"/>
       <c r="AK222" s="2"/>
     </row>
-    <row r="223" spans="7:37" hidden="1">
+    <row r="223" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -9054,7 +9042,7 @@
       <c r="AJ223" s="2"/>
       <c r="AK223" s="2"/>
     </row>
-    <row r="224" spans="7:37" hidden="1">
+    <row r="224" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -9087,7 +9075,7 @@
       <c r="AJ224" s="2"/>
       <c r="AK224" s="2"/>
     </row>
-    <row r="225" spans="7:37" hidden="1">
+    <row r="225" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -9120,7 +9108,7 @@
       <c r="AJ225" s="2"/>
       <c r="AK225" s="2"/>
     </row>
-    <row r="226" spans="7:37" hidden="1">
+    <row r="226" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -9153,7 +9141,7 @@
       <c r="AJ226" s="2"/>
       <c r="AK226" s="2"/>
     </row>
-    <row r="227" spans="7:37" hidden="1">
+    <row r="227" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -9186,7 +9174,7 @@
       <c r="AJ227" s="2"/>
       <c r="AK227" s="2"/>
     </row>
-    <row r="228" spans="7:37" hidden="1">
+    <row r="228" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -9219,7 +9207,7 @@
       <c r="AJ228" s="2"/>
       <c r="AK228" s="2"/>
     </row>
-    <row r="229" spans="7:37" hidden="1">
+    <row r="229" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -9252,7 +9240,7 @@
       <c r="AJ229" s="2"/>
       <c r="AK229" s="2"/>
     </row>
-    <row r="230" spans="7:37" hidden="1">
+    <row r="230" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -9285,7 +9273,7 @@
       <c r="AJ230" s="2"/>
       <c r="AK230" s="2"/>
     </row>
-    <row r="231" spans="7:37" hidden="1">
+    <row r="231" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -9318,7 +9306,7 @@
       <c r="AJ231" s="2"/>
       <c r="AK231" s="2"/>
     </row>
-    <row r="232" spans="7:37" hidden="1">
+    <row r="232" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -9351,7 +9339,7 @@
       <c r="AJ232" s="2"/>
       <c r="AK232" s="2"/>
     </row>
-    <row r="233" spans="7:37" hidden="1">
+    <row r="233" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -9384,7 +9372,7 @@
       <c r="AJ233" s="2"/>
       <c r="AK233" s="2"/>
     </row>
-    <row r="234" spans="7:37" hidden="1">
+    <row r="234" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
@@ -9417,7 +9405,7 @@
       <c r="AJ234" s="2"/>
       <c r="AK234" s="2"/>
     </row>
-    <row r="235" spans="7:37" hidden="1">
+    <row r="235" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
@@ -9450,7 +9438,7 @@
       <c r="AJ235" s="2"/>
       <c r="AK235" s="2"/>
     </row>
-    <row r="236" spans="7:37" hidden="1">
+    <row r="236" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -9483,7 +9471,7 @@
       <c r="AJ236" s="2"/>
       <c r="AK236" s="2"/>
     </row>
-    <row r="237" spans="7:37" hidden="1">
+    <row r="237" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
@@ -9516,7 +9504,7 @@
       <c r="AJ237" s="2"/>
       <c r="AK237" s="2"/>
     </row>
-    <row r="238" spans="7:37" hidden="1">
+    <row r="238" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
@@ -9549,7 +9537,7 @@
       <c r="AJ238" s="2"/>
       <c r="AK238" s="2"/>
     </row>
-    <row r="239" spans="7:37" hidden="1">
+    <row r="239" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -9582,7 +9570,7 @@
       <c r="AJ239" s="2"/>
       <c r="AK239" s="2"/>
     </row>
-    <row r="240" spans="7:37" hidden="1">
+    <row r="240" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -9615,7 +9603,7 @@
       <c r="AJ240" s="2"/>
       <c r="AK240" s="2"/>
     </row>
-    <row r="241" spans="7:37" hidden="1">
+    <row r="241" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -9648,7 +9636,7 @@
       <c r="AJ241" s="2"/>
       <c r="AK241" s="2"/>
     </row>
-    <row r="242" spans="7:37" hidden="1">
+    <row r="242" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
@@ -9681,7 +9669,7 @@
       <c r="AJ242" s="2"/>
       <c r="AK242" s="2"/>
     </row>
-    <row r="243" spans="7:37" hidden="1">
+    <row r="243" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
@@ -9714,7 +9702,7 @@
       <c r="AJ243" s="2"/>
       <c r="AK243" s="2"/>
     </row>
-    <row r="244" spans="7:37" hidden="1">
+    <row r="244" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
@@ -9747,7 +9735,7 @@
       <c r="AJ244" s="2"/>
       <c r="AK244" s="2"/>
     </row>
-    <row r="245" spans="7:37" hidden="1">
+    <row r="245" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
@@ -9780,7 +9768,7 @@
       <c r="AJ245" s="2"/>
       <c r="AK245" s="2"/>
     </row>
-    <row r="246" spans="7:37" hidden="1">
+    <row r="246" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
@@ -9813,7 +9801,7 @@
       <c r="AJ246" s="2"/>
       <c r="AK246" s="2"/>
     </row>
-    <row r="247" spans="7:37" hidden="1">
+    <row r="247" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
@@ -9846,7 +9834,7 @@
       <c r="AJ247" s="2"/>
       <c r="AK247" s="2"/>
     </row>
-    <row r="248" spans="7:37" hidden="1">
+    <row r="248" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
@@ -9879,7 +9867,7 @@
       <c r="AJ248" s="2"/>
       <c r="AK248" s="2"/>
     </row>
-    <row r="249" spans="7:37" hidden="1">
+    <row r="249" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
@@ -9912,7 +9900,7 @@
       <c r="AJ249" s="2"/>
       <c r="AK249" s="2"/>
     </row>
-    <row r="250" spans="7:37" hidden="1">
+    <row r="250" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
@@ -9945,7 +9933,7 @@
       <c r="AJ250" s="2"/>
       <c r="AK250" s="2"/>
     </row>
-    <row r="251" spans="7:37" hidden="1">
+    <row r="251" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
@@ -9978,7 +9966,7 @@
       <c r="AJ251" s="2"/>
       <c r="AK251" s="2"/>
     </row>
-    <row r="252" spans="7:37" hidden="1">
+    <row r="252" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
@@ -10011,7 +9999,7 @@
       <c r="AJ252" s="2"/>
       <c r="AK252" s="2"/>
     </row>
-    <row r="253" spans="7:37" hidden="1">
+    <row r="253" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
@@ -10044,7 +10032,7 @@
       <c r="AJ253" s="2"/>
       <c r="AK253" s="2"/>
     </row>
-    <row r="254" spans="7:37" hidden="1">
+    <row r="254" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
@@ -10077,7 +10065,7 @@
       <c r="AJ254" s="2"/>
       <c r="AK254" s="2"/>
     </row>
-    <row r="255" spans="7:37" hidden="1">
+    <row r="255" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
@@ -10110,7 +10098,7 @@
       <c r="AJ255" s="2"/>
       <c r="AK255" s="2"/>
     </row>
-    <row r="256" spans="7:37" hidden="1">
+    <row r="256" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
@@ -10143,7 +10131,7 @@
       <c r="AJ256" s="2"/>
       <c r="AK256" s="2"/>
     </row>
-    <row r="257" spans="7:37" hidden="1">
+    <row r="257" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
@@ -10176,7 +10164,7 @@
       <c r="AJ257" s="2"/>
       <c r="AK257" s="2"/>
     </row>
-    <row r="258" spans="7:37" hidden="1">
+    <row r="258" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
@@ -10209,7 +10197,7 @@
       <c r="AJ258" s="2"/>
       <c r="AK258" s="2"/>
     </row>
-    <row r="259" spans="7:37" hidden="1">
+    <row r="259" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
@@ -10242,7 +10230,7 @@
       <c r="AJ259" s="2"/>
       <c r="AK259" s="2"/>
     </row>
-    <row r="260" spans="7:37" hidden="1">
+    <row r="260" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
@@ -10275,7 +10263,7 @@
       <c r="AJ260" s="2"/>
       <c r="AK260" s="2"/>
     </row>
-    <row r="261" spans="7:37" hidden="1">
+    <row r="261" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
@@ -10308,7 +10296,7 @@
       <c r="AJ261" s="2"/>
       <c r="AK261" s="2"/>
     </row>
-    <row r="262" spans="7:37" hidden="1">
+    <row r="262" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
@@ -10341,7 +10329,7 @@
       <c r="AJ262" s="2"/>
       <c r="AK262" s="2"/>
     </row>
-    <row r="263" spans="7:37" hidden="1">
+    <row r="263" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
@@ -10374,7 +10362,7 @@
       <c r="AJ263" s="2"/>
       <c r="AK263" s="2"/>
     </row>
-    <row r="264" spans="7:37" hidden="1">
+    <row r="264" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
@@ -10407,7 +10395,7 @@
       <c r="AJ264" s="2"/>
       <c r="AK264" s="2"/>
     </row>
-    <row r="265" spans="7:37" hidden="1">
+    <row r="265" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
@@ -10440,7 +10428,7 @@
       <c r="AJ265" s="2"/>
       <c r="AK265" s="2"/>
     </row>
-    <row r="266" spans="7:37" hidden="1">
+    <row r="266" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
@@ -10473,7 +10461,7 @@
       <c r="AJ266" s="2"/>
       <c r="AK266" s="2"/>
     </row>
-    <row r="267" spans="7:37" hidden="1">
+    <row r="267" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
@@ -10506,7 +10494,7 @@
       <c r="AJ267" s="2"/>
       <c r="AK267" s="2"/>
     </row>
-    <row r="268" spans="7:37" hidden="1">
+    <row r="268" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
@@ -10539,7 +10527,7 @@
       <c r="AJ268" s="2"/>
       <c r="AK268" s="2"/>
     </row>
-    <row r="269" spans="7:37" hidden="1">
+    <row r="269" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
@@ -10572,7 +10560,7 @@
       <c r="AJ269" s="2"/>
       <c r="AK269" s="2"/>
     </row>
-    <row r="270" spans="7:37" hidden="1">
+    <row r="270" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
@@ -10605,7 +10593,7 @@
       <c r="AJ270" s="2"/>
       <c r="AK270" s="2"/>
     </row>
-    <row r="271" spans="7:37" hidden="1">
+    <row r="271" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
@@ -10638,7 +10626,7 @@
       <c r="AJ271" s="2"/>
       <c r="AK271" s="2"/>
     </row>
-    <row r="272" spans="7:37" hidden="1">
+    <row r="272" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
@@ -10671,7 +10659,7 @@
       <c r="AJ272" s="2"/>
       <c r="AK272" s="2"/>
     </row>
-    <row r="273" spans="7:37" hidden="1">
+    <row r="273" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
@@ -10704,7 +10692,7 @@
       <c r="AJ273" s="2"/>
       <c r="AK273" s="2"/>
     </row>
-    <row r="274" spans="7:37" hidden="1">
+    <row r="274" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
@@ -10737,7 +10725,7 @@
       <c r="AJ274" s="2"/>
       <c r="AK274" s="2"/>
     </row>
-    <row r="275" spans="7:37" hidden="1">
+    <row r="275" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
@@ -10770,7 +10758,7 @@
       <c r="AJ275" s="2"/>
       <c r="AK275" s="2"/>
     </row>
-    <row r="276" spans="7:37" hidden="1">
+    <row r="276" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
@@ -10803,7 +10791,7 @@
       <c r="AJ276" s="2"/>
       <c r="AK276" s="2"/>
     </row>
-    <row r="277" spans="7:37" hidden="1">
+    <row r="277" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
@@ -10836,7 +10824,7 @@
       <c r="AJ277" s="2"/>
       <c r="AK277" s="2"/>
     </row>
-    <row r="278" spans="7:37" hidden="1">
+    <row r="278" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
@@ -10869,7 +10857,7 @@
       <c r="AJ278" s="2"/>
       <c r="AK278" s="2"/>
     </row>
-    <row r="279" spans="7:37" hidden="1">
+    <row r="279" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
@@ -10902,7 +10890,7 @@
       <c r="AJ279" s="2"/>
       <c r="AK279" s="2"/>
     </row>
-    <row r="280" spans="7:37" hidden="1">
+    <row r="280" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
@@ -10935,7 +10923,7 @@
       <c r="AJ280" s="2"/>
       <c r="AK280" s="2"/>
     </row>
-    <row r="281" spans="7:37" hidden="1">
+    <row r="281" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
@@ -10968,7 +10956,7 @@
       <c r="AJ281" s="2"/>
       <c r="AK281" s="2"/>
     </row>
-    <row r="282" spans="7:37" hidden="1">
+    <row r="282" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
@@ -11001,7 +10989,7 @@
       <c r="AJ282" s="2"/>
       <c r="AK282" s="2"/>
     </row>
-    <row r="283" spans="7:37" hidden="1">
+    <row r="283" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
@@ -11034,7 +11022,7 @@
       <c r="AJ283" s="2"/>
       <c r="AK283" s="2"/>
     </row>
-    <row r="284" spans="7:37" hidden="1">
+    <row r="284" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
@@ -11067,7 +11055,7 @@
       <c r="AJ284" s="2"/>
       <c r="AK284" s="2"/>
     </row>
-    <row r="285" spans="7:37" hidden="1">
+    <row r="285" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
@@ -11100,7 +11088,7 @@
       <c r="AJ285" s="2"/>
       <c r="AK285" s="2"/>
     </row>
-    <row r="286" spans="7:37" hidden="1">
+    <row r="286" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
@@ -11133,7 +11121,7 @@
       <c r="AJ286" s="2"/>
       <c r="AK286" s="2"/>
     </row>
-    <row r="287" spans="7:37" hidden="1">
+    <row r="287" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
@@ -11166,7 +11154,7 @@
       <c r="AJ287" s="2"/>
       <c r="AK287" s="2"/>
     </row>
-    <row r="288" spans="7:37" hidden="1">
+    <row r="288" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
@@ -11199,7 +11187,7 @@
       <c r="AJ288" s="2"/>
       <c r="AK288" s="2"/>
     </row>
-    <row r="289" spans="7:37" hidden="1">
+    <row r="289" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
@@ -11232,7 +11220,7 @@
       <c r="AJ289" s="2"/>
       <c r="AK289" s="2"/>
     </row>
-    <row r="290" spans="7:37" hidden="1">
+    <row r="290" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
@@ -11265,7 +11253,7 @@
       <c r="AJ290" s="2"/>
       <c r="AK290" s="2"/>
     </row>
-    <row r="291" spans="7:37" hidden="1">
+    <row r="291" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
@@ -11298,7 +11286,7 @@
       <c r="AJ291" s="2"/>
       <c r="AK291" s="2"/>
     </row>
-    <row r="292" spans="7:37" hidden="1">
+    <row r="292" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
@@ -11331,7 +11319,7 @@
       <c r="AJ292" s="2"/>
       <c r="AK292" s="2"/>
     </row>
-    <row r="293" spans="7:37" hidden="1">
+    <row r="293" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
@@ -11364,7 +11352,7 @@
       <c r="AJ293" s="2"/>
       <c r="AK293" s="2"/>
     </row>
-    <row r="294" spans="7:37" hidden="1">
+    <row r="294" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
@@ -11397,7 +11385,7 @@
       <c r="AJ294" s="2"/>
       <c r="AK294" s="2"/>
     </row>
-    <row r="295" spans="7:37" hidden="1">
+    <row r="295" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
@@ -11430,7 +11418,7 @@
       <c r="AJ295" s="2"/>
       <c r="AK295" s="2"/>
     </row>
-    <row r="296" spans="7:37" hidden="1">
+    <row r="296" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
@@ -11463,7 +11451,7 @@
       <c r="AJ296" s="2"/>
       <c r="AK296" s="2"/>
     </row>
-    <row r="297" spans="7:37" hidden="1">
+    <row r="297" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
@@ -11496,7 +11484,7 @@
       <c r="AJ297" s="2"/>
       <c r="AK297" s="2"/>
     </row>
-    <row r="298" spans="7:37" hidden="1">
+    <row r="298" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
@@ -11529,7 +11517,7 @@
       <c r="AJ298" s="2"/>
       <c r="AK298" s="2"/>
     </row>
-    <row r="299" spans="7:37" hidden="1">
+    <row r="299" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
@@ -11562,7 +11550,7 @@
       <c r="AJ299" s="2"/>
       <c r="AK299" s="2"/>
     </row>
-    <row r="300" spans="7:37" hidden="1">
+    <row r="300" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
@@ -11595,7 +11583,7 @@
       <c r="AJ300" s="2"/>
       <c r="AK300" s="2"/>
     </row>
-    <row r="301" spans="7:37" hidden="1">
+    <row r="301" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
@@ -11628,7 +11616,7 @@
       <c r="AJ301" s="2"/>
       <c r="AK301" s="2"/>
     </row>
-    <row r="302" spans="7:37" hidden="1">
+    <row r="302" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
@@ -11661,7 +11649,7 @@
       <c r="AJ302" s="2"/>
       <c r="AK302" s="2"/>
     </row>
-    <row r="303" spans="7:37" hidden="1">
+    <row r="303" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
@@ -11694,7 +11682,7 @@
       <c r="AJ303" s="2"/>
       <c r="AK303" s="2"/>
     </row>
-    <row r="304" spans="7:37" hidden="1">
+    <row r="304" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
@@ -11727,7 +11715,7 @@
       <c r="AJ304" s="2"/>
       <c r="AK304" s="2"/>
     </row>
-    <row r="305" spans="7:37" hidden="1">
+    <row r="305" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
@@ -11760,7 +11748,7 @@
       <c r="AJ305" s="2"/>
       <c r="AK305" s="2"/>
     </row>
-    <row r="306" spans="7:37" hidden="1">
+    <row r="306" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
@@ -11793,7 +11781,7 @@
       <c r="AJ306" s="2"/>
       <c r="AK306" s="2"/>
     </row>
-    <row r="307" spans="7:37" hidden="1">
+    <row r="307" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
@@ -11826,7 +11814,7 @@
       <c r="AJ307" s="2"/>
       <c r="AK307" s="2"/>
     </row>
-    <row r="308" spans="7:37" hidden="1">
+    <row r="308" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
@@ -11859,7 +11847,7 @@
       <c r="AJ308" s="2"/>
       <c r="AK308" s="2"/>
     </row>
-    <row r="309" spans="7:37" hidden="1">
+    <row r="309" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
@@ -11892,7 +11880,7 @@
       <c r="AJ309" s="2"/>
       <c r="AK309" s="2"/>
     </row>
-    <row r="310" spans="7:37" hidden="1">
+    <row r="310" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
@@ -11925,7 +11913,7 @@
       <c r="AJ310" s="2"/>
       <c r="AK310" s="2"/>
     </row>
-    <row r="311" spans="7:37" hidden="1">
+    <row r="311" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
@@ -11958,7 +11946,7 @@
       <c r="AJ311" s="2"/>
       <c r="AK311" s="2"/>
     </row>
-    <row r="312" spans="7:37" hidden="1">
+    <row r="312" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
@@ -11991,7 +11979,7 @@
       <c r="AJ312" s="2"/>
       <c r="AK312" s="2"/>
     </row>
-    <row r="313" spans="7:37" hidden="1">
+    <row r="313" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
@@ -12024,7 +12012,7 @@
       <c r="AJ313" s="2"/>
       <c r="AK313" s="2"/>
     </row>
-    <row r="314" spans="7:37" hidden="1">
+    <row r="314" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
@@ -12057,7 +12045,7 @@
       <c r="AJ314" s="2"/>
       <c r="AK314" s="2"/>
     </row>
-    <row r="315" spans="7:37" hidden="1">
+    <row r="315" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
@@ -12090,7 +12078,7 @@
       <c r="AJ315" s="2"/>
       <c r="AK315" s="2"/>
     </row>
-    <row r="316" spans="7:37" hidden="1">
+    <row r="316" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
@@ -12123,7 +12111,7 @@
       <c r="AJ316" s="2"/>
       <c r="AK316" s="2"/>
     </row>
-    <row r="317" spans="7:37" hidden="1">
+    <row r="317" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
@@ -12156,7 +12144,7 @@
       <c r="AJ317" s="2"/>
       <c r="AK317" s="2"/>
     </row>
-    <row r="318" spans="7:37" hidden="1">
+    <row r="318" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
@@ -12189,7 +12177,7 @@
       <c r="AJ318" s="2"/>
       <c r="AK318" s="2"/>
     </row>
-    <row r="319" spans="7:37" hidden="1">
+    <row r="319" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
@@ -12222,7 +12210,7 @@
       <c r="AJ319" s="2"/>
       <c r="AK319" s="2"/>
     </row>
-    <row r="320" spans="7:37" hidden="1">
+    <row r="320" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
@@ -12255,7 +12243,7 @@
       <c r="AJ320" s="2"/>
       <c r="AK320" s="2"/>
     </row>
-    <row r="321" spans="7:37" hidden="1">
+    <row r="321" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
@@ -12288,7 +12276,7 @@
       <c r="AJ321" s="2"/>
       <c r="AK321" s="2"/>
     </row>
-    <row r="322" spans="7:37" hidden="1">
+    <row r="322" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
@@ -12321,7 +12309,7 @@
       <c r="AJ322" s="2"/>
       <c r="AK322" s="2"/>
     </row>
-    <row r="323" spans="7:37" hidden="1">
+    <row r="323" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
@@ -12354,7 +12342,7 @@
       <c r="AJ323" s="2"/>
       <c r="AK323" s="2"/>
     </row>
-    <row r="324" spans="7:37" hidden="1">
+    <row r="324" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
@@ -12387,7 +12375,7 @@
       <c r="AJ324" s="2"/>
       <c r="AK324" s="2"/>
     </row>
-    <row r="325" spans="7:37" hidden="1">
+    <row r="325" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
@@ -12420,7 +12408,7 @@
       <c r="AJ325" s="2"/>
       <c r="AK325" s="2"/>
     </row>
-    <row r="326" spans="7:37" hidden="1">
+    <row r="326" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
@@ -12453,7 +12441,7 @@
       <c r="AJ326" s="2"/>
       <c r="AK326" s="2"/>
     </row>
-    <row r="327" spans="7:37" hidden="1">
+    <row r="327" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
@@ -12486,7 +12474,7 @@
       <c r="AJ327" s="2"/>
       <c r="AK327" s="2"/>
     </row>
-    <row r="328" spans="7:37" hidden="1">
+    <row r="328" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
@@ -12519,7 +12507,7 @@
       <c r="AJ328" s="2"/>
       <c r="AK328" s="2"/>
     </row>
-    <row r="329" spans="7:37" hidden="1">
+    <row r="329" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
@@ -12552,7 +12540,7 @@
       <c r="AJ329" s="2"/>
       <c r="AK329" s="2"/>
     </row>
-    <row r="330" spans="7:37" hidden="1">
+    <row r="330" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
@@ -12585,7 +12573,7 @@
       <c r="AJ330" s="2"/>
       <c r="AK330" s="2"/>
     </row>
-    <row r="331" spans="7:37" hidden="1">
+    <row r="331" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
@@ -12618,7 +12606,7 @@
       <c r="AJ331" s="2"/>
       <c r="AK331" s="2"/>
     </row>
-    <row r="332" spans="7:37" hidden="1">
+    <row r="332" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
@@ -12651,7 +12639,7 @@
       <c r="AJ332" s="2"/>
       <c r="AK332" s="2"/>
     </row>
-    <row r="333" spans="7:37" hidden="1">
+    <row r="333" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
@@ -12684,7 +12672,7 @@
       <c r="AJ333" s="2"/>
       <c r="AK333" s="2"/>
     </row>
-    <row r="334" spans="7:37" hidden="1">
+    <row r="334" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
@@ -12717,7 +12705,7 @@
       <c r="AJ334" s="2"/>
       <c r="AK334" s="2"/>
     </row>
-    <row r="335" spans="7:37" hidden="1">
+    <row r="335" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
@@ -12750,7 +12738,7 @@
       <c r="AJ335" s="2"/>
       <c r="AK335" s="2"/>
     </row>
-    <row r="336" spans="7:37" hidden="1">
+    <row r="336" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
@@ -12783,7 +12771,7 @@
       <c r="AJ336" s="2"/>
       <c r="AK336" s="2"/>
     </row>
-    <row r="337" spans="7:37" hidden="1">
+    <row r="337" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
@@ -12816,7 +12804,7 @@
       <c r="AJ337" s="2"/>
       <c r="AK337" s="2"/>
     </row>
-    <row r="338" spans="7:37" hidden="1">
+    <row r="338" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
@@ -12849,7 +12837,7 @@
       <c r="AJ338" s="2"/>
       <c r="AK338" s="2"/>
     </row>
-    <row r="339" spans="7:37" hidden="1">
+    <row r="339" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
@@ -12882,7 +12870,7 @@
       <c r="AJ339" s="2"/>
       <c r="AK339" s="2"/>
     </row>
-    <row r="340" spans="7:37" hidden="1">
+    <row r="340" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
@@ -12915,7 +12903,7 @@
       <c r="AJ340" s="2"/>
       <c r="AK340" s="2"/>
     </row>
-    <row r="341" spans="7:37" hidden="1">
+    <row r="341" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
@@ -12948,7 +12936,7 @@
       <c r="AJ341" s="2"/>
       <c r="AK341" s="2"/>
     </row>
-    <row r="342" spans="7:37" hidden="1">
+    <row r="342" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
@@ -12981,7 +12969,7 @@
       <c r="AJ342" s="2"/>
       <c r="AK342" s="2"/>
     </row>
-    <row r="343" spans="7:37" hidden="1">
+    <row r="343" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
@@ -13014,7 +13002,7 @@
       <c r="AJ343" s="2"/>
       <c r="AK343" s="2"/>
     </row>
-    <row r="344" spans="7:37" hidden="1">
+    <row r="344" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
@@ -13047,7 +13035,7 @@
       <c r="AJ344" s="2"/>
       <c r="AK344" s="2"/>
     </row>
-    <row r="345" spans="7:37" hidden="1">
+    <row r="345" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
@@ -13080,7 +13068,7 @@
       <c r="AJ345" s="2"/>
       <c r="AK345" s="2"/>
     </row>
-    <row r="346" spans="7:37" hidden="1">
+    <row r="346" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -13113,7 +13101,7 @@
       <c r="AJ346" s="2"/>
       <c r="AK346" s="2"/>
     </row>
-    <row r="347" spans="7:37" hidden="1">
+    <row r="347" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
@@ -13146,7 +13134,7 @@
       <c r="AJ347" s="2"/>
       <c r="AK347" s="2"/>
     </row>
-    <row r="348" spans="7:37" hidden="1">
+    <row r="348" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
@@ -13179,7 +13167,7 @@
       <c r="AJ348" s="2"/>
       <c r="AK348" s="2"/>
     </row>
-    <row r="349" spans="7:37" hidden="1">
+    <row r="349" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
@@ -13212,7 +13200,7 @@
       <c r="AJ349" s="2"/>
       <c r="AK349" s="2"/>
     </row>
-    <row r="350" spans="7:37" hidden="1">
+    <row r="350" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
@@ -13245,7 +13233,7 @@
       <c r="AJ350" s="2"/>
       <c r="AK350" s="2"/>
     </row>
-    <row r="351" spans="7:37" hidden="1">
+    <row r="351" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
@@ -13278,7 +13266,7 @@
       <c r="AJ351" s="2"/>
       <c r="AK351" s="2"/>
     </row>
-    <row r="352" spans="7:37" hidden="1">
+    <row r="352" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
@@ -13311,7 +13299,7 @@
       <c r="AJ352" s="2"/>
       <c r="AK352" s="2"/>
     </row>
-    <row r="353" spans="7:37" hidden="1">
+    <row r="353" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
@@ -13344,7 +13332,7 @@
       <c r="AJ353" s="2"/>
       <c r="AK353" s="2"/>
     </row>
-    <row r="354" spans="7:37" hidden="1">
+    <row r="354" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
@@ -13377,7 +13365,7 @@
       <c r="AJ354" s="2"/>
       <c r="AK354" s="2"/>
     </row>
-    <row r="355" spans="7:37" hidden="1">
+    <row r="355" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
@@ -13410,7 +13398,7 @@
       <c r="AJ355" s="2"/>
       <c r="AK355" s="2"/>
     </row>
-    <row r="356" spans="7:37" hidden="1">
+    <row r="356" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
@@ -13443,7 +13431,7 @@
       <c r="AJ356" s="2"/>
       <c r="AK356" s="2"/>
     </row>
-    <row r="357" spans="7:37" hidden="1">
+    <row r="357" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
@@ -13476,7 +13464,7 @@
       <c r="AJ357" s="2"/>
       <c r="AK357" s="2"/>
     </row>
-    <row r="358" spans="7:37" hidden="1">
+    <row r="358" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
@@ -13509,7 +13497,7 @@
       <c r="AJ358" s="2"/>
       <c r="AK358" s="2"/>
     </row>
-    <row r="359" spans="7:37" hidden="1">
+    <row r="359" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
@@ -13542,7 +13530,7 @@
       <c r="AJ359" s="2"/>
       <c r="AK359" s="2"/>
     </row>
-    <row r="360" spans="7:37" hidden="1">
+    <row r="360" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
@@ -13575,7 +13563,7 @@
       <c r="AJ360" s="2"/>
       <c r="AK360" s="2"/>
     </row>
-    <row r="361" spans="7:37" hidden="1">
+    <row r="361" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
@@ -13608,7 +13596,7 @@
       <c r="AJ361" s="2"/>
       <c r="AK361" s="2"/>
     </row>
-    <row r="362" spans="7:37" hidden="1">
+    <row r="362" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
@@ -13641,7 +13629,7 @@
       <c r="AJ362" s="2"/>
       <c r="AK362" s="2"/>
     </row>
-    <row r="363" spans="7:37" hidden="1">
+    <row r="363" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
@@ -13674,7 +13662,7 @@
       <c r="AJ363" s="2"/>
       <c r="AK363" s="2"/>
     </row>
-    <row r="364" spans="7:37" hidden="1">
+    <row r="364" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
@@ -13707,7 +13695,7 @@
       <c r="AJ364" s="2"/>
       <c r="AK364" s="2"/>
     </row>
-    <row r="365" spans="7:37" hidden="1">
+    <row r="365" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
@@ -13740,7 +13728,7 @@
       <c r="AJ365" s="2"/>
       <c r="AK365" s="2"/>
     </row>
-    <row r="366" spans="7:37" hidden="1">
+    <row r="366" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
@@ -13773,7 +13761,7 @@
       <c r="AJ366" s="2"/>
       <c r="AK366" s="2"/>
     </row>
-    <row r="367" spans="7:37" hidden="1">
+    <row r="367" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
@@ -13806,7 +13794,7 @@
       <c r="AJ367" s="2"/>
       <c r="AK367" s="2"/>
     </row>
-    <row r="368" spans="7:37" hidden="1">
+    <row r="368" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -13839,7 +13827,7 @@
       <c r="AJ368" s="2"/>
       <c r="AK368" s="2"/>
     </row>
-    <row r="369" spans="7:37" hidden="1">
+    <row r="369" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
@@ -13872,7 +13860,7 @@
       <c r="AJ369" s="2"/>
       <c r="AK369" s="2"/>
     </row>
-    <row r="370" spans="7:37" hidden="1">
+    <row r="370" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
@@ -13905,7 +13893,7 @@
       <c r="AJ370" s="2"/>
       <c r="AK370" s="2"/>
     </row>
-    <row r="371" spans="7:37" hidden="1">
+    <row r="371" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
@@ -13938,7 +13926,7 @@
       <c r="AJ371" s="2"/>
       <c r="AK371" s="2"/>
     </row>
-    <row r="372" spans="7:37" hidden="1">
+    <row r="372" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
@@ -13971,7 +13959,7 @@
       <c r="AJ372" s="2"/>
       <c r="AK372" s="2"/>
     </row>
-    <row r="373" spans="7:37" hidden="1">
+    <row r="373" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
@@ -14004,7 +13992,7 @@
       <c r="AJ373" s="2"/>
       <c r="AK373" s="2"/>
     </row>
-    <row r="374" spans="7:37" hidden="1">
+    <row r="374" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
@@ -14037,7 +14025,7 @@
       <c r="AJ374" s="2"/>
       <c r="AK374" s="2"/>
     </row>
-    <row r="375" spans="7:37" hidden="1">
+    <row r="375" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
@@ -14070,7 +14058,7 @@
       <c r="AJ375" s="2"/>
       <c r="AK375" s="2"/>
     </row>
-    <row r="376" spans="7:37" hidden="1">
+    <row r="376" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
@@ -14103,7 +14091,7 @@
       <c r="AJ376" s="2"/>
       <c r="AK376" s="2"/>
     </row>
-    <row r="377" spans="7:37" hidden="1">
+    <row r="377" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
@@ -14136,7 +14124,7 @@
       <c r="AJ377" s="2"/>
       <c r="AK377" s="2"/>
     </row>
-    <row r="378" spans="7:37" hidden="1">
+    <row r="378" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
@@ -14169,7 +14157,7 @@
       <c r="AJ378" s="2"/>
       <c r="AK378" s="2"/>
     </row>
-    <row r="379" spans="7:37" hidden="1">
+    <row r="379" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
@@ -14202,7 +14190,7 @@
       <c r="AJ379" s="2"/>
       <c r="AK379" s="2"/>
     </row>
-    <row r="380" spans="7:37" hidden="1">
+    <row r="380" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
@@ -14235,7 +14223,7 @@
       <c r="AJ380" s="2"/>
       <c r="AK380" s="2"/>
     </row>
-    <row r="381" spans="7:37" hidden="1">
+    <row r="381" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
@@ -14268,7 +14256,7 @@
       <c r="AJ381" s="2"/>
       <c r="AK381" s="2"/>
     </row>
-    <row r="382" spans="7:37" hidden="1">
+    <row r="382" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
@@ -14301,7 +14289,7 @@
       <c r="AJ382" s="2"/>
       <c r="AK382" s="2"/>
     </row>
-    <row r="383" spans="7:37" hidden="1">
+    <row r="383" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
@@ -14334,7 +14322,7 @@
       <c r="AJ383" s="2"/>
       <c r="AK383" s="2"/>
     </row>
-    <row r="384" spans="7:37" hidden="1">
+    <row r="384" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
@@ -14367,7 +14355,7 @@
       <c r="AJ384" s="2"/>
       <c r="AK384" s="2"/>
     </row>
-    <row r="385" spans="7:37" hidden="1">
+    <row r="385" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
@@ -14400,7 +14388,7 @@
       <c r="AJ385" s="2"/>
       <c r="AK385" s="2"/>
     </row>
-    <row r="386" spans="7:37" hidden="1">
+    <row r="386" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
@@ -14433,7 +14421,7 @@
       <c r="AJ386" s="2"/>
       <c r="AK386" s="2"/>
     </row>
-    <row r="387" spans="7:37" hidden="1">
+    <row r="387" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
@@ -14466,7 +14454,7 @@
       <c r="AJ387" s="2"/>
       <c r="AK387" s="2"/>
     </row>
-    <row r="388" spans="7:37" hidden="1">
+    <row r="388" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
@@ -14499,7 +14487,7 @@
       <c r="AJ388" s="2"/>
       <c r="AK388" s="2"/>
     </row>
-    <row r="389" spans="7:37" hidden="1">
+    <row r="389" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
@@ -14532,7 +14520,7 @@
       <c r="AJ389" s="2"/>
       <c r="AK389" s="2"/>
     </row>
-    <row r="390" spans="7:37" hidden="1">
+    <row r="390" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
@@ -14565,7 +14553,7 @@
       <c r="AJ390" s="2"/>
       <c r="AK390" s="2"/>
     </row>
-    <row r="391" spans="7:37" hidden="1">
+    <row r="391" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
@@ -14598,7 +14586,7 @@
       <c r="AJ391" s="2"/>
       <c r="AK391" s="2"/>
     </row>
-    <row r="392" spans="7:37" hidden="1">
+    <row r="392" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
@@ -14631,7 +14619,7 @@
       <c r="AJ392" s="2"/>
       <c r="AK392" s="2"/>
     </row>
-    <row r="393" spans="7:37" hidden="1">
+    <row r="393" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
@@ -14664,7 +14652,7 @@
       <c r="AJ393" s="2"/>
       <c r="AK393" s="2"/>
     </row>
-    <row r="394" spans="7:37" hidden="1">
+    <row r="394" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
@@ -14697,7 +14685,7 @@
       <c r="AJ394" s="2"/>
       <c r="AK394" s="2"/>
     </row>
-    <row r="395" spans="7:37" hidden="1">
+    <row r="395" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
@@ -14730,7 +14718,7 @@
       <c r="AJ395" s="2"/>
       <c r="AK395" s="2"/>
     </row>
-    <row r="396" spans="7:37" hidden="1">
+    <row r="396" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
@@ -14763,7 +14751,7 @@
       <c r="AJ396" s="2"/>
       <c r="AK396" s="2"/>
     </row>
-    <row r="397" spans="7:37" hidden="1">
+    <row r="397" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
@@ -14796,7 +14784,7 @@
       <c r="AJ397" s="2"/>
       <c r="AK397" s="2"/>
     </row>
-    <row r="398" spans="7:37" hidden="1">
+    <row r="398" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
@@ -14829,7 +14817,7 @@
       <c r="AJ398" s="2"/>
       <c r="AK398" s="2"/>
     </row>
-    <row r="399" spans="7:37" hidden="1">
+    <row r="399" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
@@ -14862,7 +14850,7 @@
       <c r="AJ399" s="2"/>
       <c r="AK399" s="2"/>
     </row>
-    <row r="400" spans="7:37" hidden="1">
+    <row r="400" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
@@ -14895,7 +14883,7 @@
       <c r="AJ400" s="2"/>
       <c r="AK400" s="2"/>
     </row>
-    <row r="401" spans="7:37" hidden="1">
+    <row r="401" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
@@ -14928,7 +14916,7 @@
       <c r="AJ401" s="2"/>
       <c r="AK401" s="2"/>
     </row>
-    <row r="402" spans="7:37" hidden="1">
+    <row r="402" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
@@ -14961,7 +14949,7 @@
       <c r="AJ402" s="2"/>
       <c r="AK402" s="2"/>
     </row>
-    <row r="403" spans="7:37" hidden="1">
+    <row r="403" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
@@ -14994,7 +14982,7 @@
       <c r="AJ403" s="2"/>
       <c r="AK403" s="2"/>
     </row>
-    <row r="404" spans="7:37" hidden="1">
+    <row r="404" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
@@ -15027,7 +15015,7 @@
       <c r="AJ404" s="2"/>
       <c r="AK404" s="2"/>
     </row>
-    <row r="405" spans="7:37" hidden="1">
+    <row r="405" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
@@ -15060,7 +15048,7 @@
       <c r="AJ405" s="2"/>
       <c r="AK405" s="2"/>
     </row>
-    <row r="406" spans="7:37" hidden="1">
+    <row r="406" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
@@ -15093,7 +15081,7 @@
       <c r="AJ406" s="2"/>
       <c r="AK406" s="2"/>
     </row>
-    <row r="407" spans="7:37" hidden="1">
+    <row r="407" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
@@ -15126,7 +15114,7 @@
       <c r="AJ407" s="2"/>
       <c r="AK407" s="2"/>
     </row>
-    <row r="408" spans="7:37" hidden="1">
+    <row r="408" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
@@ -15159,7 +15147,7 @@
       <c r="AJ408" s="2"/>
       <c r="AK408" s="2"/>
     </row>
-    <row r="409" spans="7:37" hidden="1">
+    <row r="409" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
@@ -15192,7 +15180,7 @@
       <c r="AJ409" s="2"/>
       <c r="AK409" s="2"/>
     </row>
-    <row r="410" spans="7:37" hidden="1">
+    <row r="410" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
@@ -15225,7 +15213,7 @@
       <c r="AJ410" s="2"/>
       <c r="AK410" s="2"/>
     </row>
-    <row r="411" spans="7:37" hidden="1">
+    <row r="411" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
@@ -15258,7 +15246,7 @@
       <c r="AJ411" s="2"/>
       <c r="AK411" s="2"/>
     </row>
-    <row r="412" spans="7:37" hidden="1">
+    <row r="412" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
@@ -15291,7 +15279,7 @@
       <c r="AJ412" s="2"/>
       <c r="AK412" s="2"/>
     </row>
-    <row r="413" spans="7:37" hidden="1">
+    <row r="413" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
@@ -15324,7 +15312,7 @@
       <c r="AJ413" s="2"/>
       <c r="AK413" s="2"/>
     </row>
-    <row r="414" spans="7:37" hidden="1">
+    <row r="414" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
@@ -15357,7 +15345,7 @@
       <c r="AJ414" s="2"/>
       <c r="AK414" s="2"/>
     </row>
-    <row r="415" spans="7:37" hidden="1">
+    <row r="415" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
@@ -15390,7 +15378,7 @@
       <c r="AJ415" s="2"/>
       <c r="AK415" s="2"/>
     </row>
-    <row r="416" spans="7:37" hidden="1">
+    <row r="416" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
@@ -15423,7 +15411,7 @@
       <c r="AJ416" s="2"/>
       <c r="AK416" s="2"/>
     </row>
-    <row r="417" spans="7:37" hidden="1">
+    <row r="417" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
@@ -15456,7 +15444,7 @@
       <c r="AJ417" s="2"/>
       <c r="AK417" s="2"/>
     </row>
-    <row r="418" spans="7:37" hidden="1">
+    <row r="418" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
@@ -15489,7 +15477,7 @@
       <c r="AJ418" s="2"/>
       <c r="AK418" s="2"/>
     </row>
-    <row r="419" spans="7:37" hidden="1">
+    <row r="419" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
@@ -15522,7 +15510,7 @@
       <c r="AJ419" s="2"/>
       <c r="AK419" s="2"/>
     </row>
-    <row r="420" spans="7:37" hidden="1">
+    <row r="420" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
@@ -15555,7 +15543,7 @@
       <c r="AJ420" s="2"/>
       <c r="AK420" s="2"/>
     </row>
-    <row r="421" spans="7:37" hidden="1">
+    <row r="421" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
@@ -15588,7 +15576,7 @@
       <c r="AJ421" s="2"/>
       <c r="AK421" s="2"/>
     </row>
-    <row r="422" spans="7:37" hidden="1">
+    <row r="422" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
@@ -15621,7 +15609,7 @@
       <c r="AJ422" s="2"/>
       <c r="AK422" s="2"/>
     </row>
-    <row r="423" spans="7:37" hidden="1">
+    <row r="423" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
@@ -15654,7 +15642,7 @@
       <c r="AJ423" s="2"/>
       <c r="AK423" s="2"/>
     </row>
-    <row r="424" spans="7:37" hidden="1">
+    <row r="424" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
@@ -15687,7 +15675,7 @@
       <c r="AJ424" s="2"/>
       <c r="AK424" s="2"/>
     </row>
-    <row r="425" spans="7:37" hidden="1">
+    <row r="425" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
@@ -15720,7 +15708,7 @@
       <c r="AJ425" s="2"/>
       <c r="AK425" s="2"/>
     </row>
-    <row r="426" spans="7:37" hidden="1">
+    <row r="426" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
@@ -15753,7 +15741,7 @@
       <c r="AJ426" s="2"/>
       <c r="AK426" s="2"/>
     </row>
-    <row r="427" spans="7:37" hidden="1">
+    <row r="427" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
@@ -15786,7 +15774,7 @@
       <c r="AJ427" s="2"/>
       <c r="AK427" s="2"/>
     </row>
-    <row r="428" spans="7:37" hidden="1">
+    <row r="428" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
@@ -15819,7 +15807,7 @@
       <c r="AJ428" s="2"/>
       <c r="AK428" s="2"/>
     </row>
-    <row r="429" spans="7:37" hidden="1">
+    <row r="429" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
@@ -15852,7 +15840,7 @@
       <c r="AJ429" s="2"/>
       <c r="AK429" s="2"/>
     </row>
-    <row r="430" spans="7:37" hidden="1">
+    <row r="430" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
@@ -15885,7 +15873,7 @@
       <c r="AJ430" s="2"/>
       <c r="AK430" s="2"/>
     </row>
-    <row r="431" spans="7:37" hidden="1">
+    <row r="431" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
@@ -15918,7 +15906,7 @@
       <c r="AJ431" s="2"/>
       <c r="AK431" s="2"/>
     </row>
-    <row r="432" spans="7:37" hidden="1">
+    <row r="432" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
@@ -15951,7 +15939,7 @@
       <c r="AJ432" s="2"/>
       <c r="AK432" s="2"/>
     </row>
-    <row r="433" spans="7:37" hidden="1">
+    <row r="433" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
@@ -15984,7 +15972,7 @@
       <c r="AJ433" s="2"/>
       <c r="AK433" s="2"/>
     </row>
-    <row r="434" spans="7:37" hidden="1">
+    <row r="434" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
@@ -16017,7 +16005,7 @@
       <c r="AJ434" s="2"/>
       <c r="AK434" s="2"/>
     </row>
-    <row r="435" spans="7:37" hidden="1">
+    <row r="435" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
@@ -16050,7 +16038,7 @@
       <c r="AJ435" s="2"/>
       <c r="AK435" s="2"/>
     </row>
-    <row r="436" spans="7:37" hidden="1">
+    <row r="436" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
@@ -16083,7 +16071,7 @@
       <c r="AJ436" s="2"/>
       <c r="AK436" s="2"/>
     </row>
-    <row r="437" spans="7:37" hidden="1">
+    <row r="437" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
@@ -16116,7 +16104,7 @@
       <c r="AJ437" s="2"/>
       <c r="AK437" s="2"/>
     </row>
-    <row r="438" spans="7:37" hidden="1">
+    <row r="438" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
@@ -16149,7 +16137,7 @@
       <c r="AJ438" s="2"/>
       <c r="AK438" s="2"/>
     </row>
-    <row r="439" spans="7:37" hidden="1">
+    <row r="439" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
@@ -16182,7 +16170,7 @@
       <c r="AJ439" s="2"/>
       <c r="AK439" s="2"/>
     </row>
-    <row r="440" spans="7:37" hidden="1">
+    <row r="440" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
@@ -16215,7 +16203,7 @@
       <c r="AJ440" s="2"/>
       <c r="AK440" s="2"/>
     </row>
-    <row r="441" spans="7:37" hidden="1">
+    <row r="441" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
@@ -16248,7 +16236,7 @@
       <c r="AJ441" s="2"/>
       <c r="AK441" s="2"/>
     </row>
-    <row r="442" spans="7:37" hidden="1">
+    <row r="442" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
@@ -16281,7 +16269,7 @@
       <c r="AJ442" s="2"/>
       <c r="AK442" s="2"/>
     </row>
-    <row r="443" spans="7:37" hidden="1">
+    <row r="443" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
@@ -16314,7 +16302,7 @@
       <c r="AJ443" s="2"/>
       <c r="AK443" s="2"/>
     </row>
-    <row r="444" spans="7:37" hidden="1">
+    <row r="444" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
@@ -16347,7 +16335,7 @@
       <c r="AJ444" s="2"/>
       <c r="AK444" s="2"/>
     </row>
-    <row r="445" spans="7:37" hidden="1">
+    <row r="445" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
@@ -16380,7 +16368,7 @@
       <c r="AJ445" s="2"/>
       <c r="AK445" s="2"/>
     </row>
-    <row r="446" spans="7:37" hidden="1">
+    <row r="446" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
@@ -16413,7 +16401,7 @@
       <c r="AJ446" s="2"/>
       <c r="AK446" s="2"/>
     </row>
-    <row r="447" spans="7:37" hidden="1">
+    <row r="447" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
@@ -16446,7 +16434,7 @@
       <c r="AJ447" s="2"/>
       <c r="AK447" s="2"/>
     </row>
-    <row r="448" spans="7:37" hidden="1">
+    <row r="448" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
@@ -16479,7 +16467,7 @@
       <c r="AJ448" s="2"/>
       <c r="AK448" s="2"/>
     </row>
-    <row r="449" spans="7:37" hidden="1">
+    <row r="449" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
@@ -16512,7 +16500,7 @@
       <c r="AJ449" s="2"/>
       <c r="AK449" s="2"/>
     </row>
-    <row r="450" spans="7:37" hidden="1">
+    <row r="450" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
@@ -16545,7 +16533,7 @@
       <c r="AJ450" s="2"/>
       <c r="AK450" s="2"/>
     </row>
-    <row r="451" spans="7:37" hidden="1">
+    <row r="451" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
@@ -16578,7 +16566,7 @@
       <c r="AJ451" s="2"/>
       <c r="AK451" s="2"/>
     </row>
-    <row r="452" spans="7:37" hidden="1">
+    <row r="452" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
@@ -16611,7 +16599,7 @@
       <c r="AJ452" s="2"/>
       <c r="AK452" s="2"/>
     </row>
-    <row r="453" spans="7:37" hidden="1">
+    <row r="453" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
@@ -16644,7 +16632,7 @@
       <c r="AJ453" s="2"/>
       <c r="AK453" s="2"/>
     </row>
-    <row r="454" spans="7:37" hidden="1">
+    <row r="454" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
@@ -16677,7 +16665,7 @@
       <c r="AJ454" s="2"/>
       <c r="AK454" s="2"/>
     </row>
-    <row r="455" spans="7:37" hidden="1">
+    <row r="455" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
@@ -16710,7 +16698,7 @@
       <c r="AJ455" s="2"/>
       <c r="AK455" s="2"/>
     </row>
-    <row r="456" spans="7:37" hidden="1">
+    <row r="456" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -16743,7 +16731,7 @@
       <c r="AJ456" s="2"/>
       <c r="AK456" s="2"/>
     </row>
-    <row r="457" spans="7:37" hidden="1">
+    <row r="457" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
@@ -16776,7 +16764,7 @@
       <c r="AJ457" s="2"/>
       <c r="AK457" s="2"/>
     </row>
-    <row r="458" spans="7:37" hidden="1">
+    <row r="458" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
@@ -16809,7 +16797,7 @@
       <c r="AJ458" s="2"/>
       <c r="AK458" s="2"/>
     </row>
-    <row r="459" spans="7:37" hidden="1">
+    <row r="459" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
@@ -16842,7 +16830,7 @@
       <c r="AJ459" s="2"/>
       <c r="AK459" s="2"/>
     </row>
-    <row r="460" spans="7:37" hidden="1">
+    <row r="460" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
@@ -16875,7 +16863,7 @@
       <c r="AJ460" s="2"/>
       <c r="AK460" s="2"/>
     </row>
-    <row r="461" spans="7:37" hidden="1">
+    <row r="461" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
@@ -16908,7 +16896,7 @@
       <c r="AJ461" s="2"/>
       <c r="AK461" s="2"/>
     </row>
-    <row r="462" spans="7:37" hidden="1">
+    <row r="462" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
@@ -16941,7 +16929,7 @@
       <c r="AJ462" s="2"/>
       <c r="AK462" s="2"/>
     </row>
-    <row r="463" spans="7:37" hidden="1">
+    <row r="463" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
@@ -16974,7 +16962,7 @@
       <c r="AJ463" s="2"/>
       <c r="AK463" s="2"/>
     </row>
-    <row r="464" spans="7:37" hidden="1">
+    <row r="464" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
@@ -17007,7 +16995,7 @@
       <c r="AJ464" s="2"/>
       <c r="AK464" s="2"/>
     </row>
-    <row r="465" spans="7:37" hidden="1">
+    <row r="465" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
@@ -17040,7 +17028,7 @@
       <c r="AJ465" s="2"/>
       <c r="AK465" s="2"/>
     </row>
-    <row r="466" spans="7:37" hidden="1">
+    <row r="466" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
@@ -17073,7 +17061,7 @@
       <c r="AJ466" s="2"/>
       <c r="AK466" s="2"/>
     </row>
-    <row r="467" spans="7:37" hidden="1">
+    <row r="467" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
@@ -17106,7 +17094,7 @@
       <c r="AJ467" s="2"/>
       <c r="AK467" s="2"/>
     </row>
-    <row r="468" spans="7:37" hidden="1">
+    <row r="468" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
@@ -17139,7 +17127,7 @@
       <c r="AJ468" s="2"/>
       <c r="AK468" s="2"/>
     </row>
-    <row r="469" spans="7:37" hidden="1">
+    <row r="469" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
@@ -17172,7 +17160,7 @@
       <c r="AJ469" s="2"/>
       <c r="AK469" s="2"/>
     </row>
-    <row r="470" spans="7:37" hidden="1">
+    <row r="470" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
@@ -17205,7 +17193,7 @@
       <c r="AJ470" s="2"/>
       <c r="AK470" s="2"/>
     </row>
-    <row r="471" spans="7:37" hidden="1">
+    <row r="471" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
@@ -17238,7 +17226,7 @@
       <c r="AJ471" s="2"/>
       <c r="AK471" s="2"/>
     </row>
-    <row r="472" spans="7:37" hidden="1">
+    <row r="472" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
@@ -17271,7 +17259,7 @@
       <c r="AJ472" s="2"/>
       <c r="AK472" s="2"/>
     </row>
-    <row r="473" spans="7:37" hidden="1">
+    <row r="473" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
@@ -17304,7 +17292,7 @@
       <c r="AJ473" s="2"/>
       <c r="AK473" s="2"/>
     </row>
-    <row r="474" spans="7:37" hidden="1">
+    <row r="474" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
@@ -17337,7 +17325,7 @@
       <c r="AJ474" s="2"/>
       <c r="AK474" s="2"/>
     </row>
-    <row r="475" spans="7:37" hidden="1">
+    <row r="475" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
@@ -17370,7 +17358,7 @@
       <c r="AJ475" s="2"/>
       <c r="AK475" s="2"/>
     </row>
-    <row r="476" spans="7:37" hidden="1">
+    <row r="476" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
@@ -17403,7 +17391,7 @@
       <c r="AJ476" s="2"/>
       <c r="AK476" s="2"/>
     </row>
-    <row r="477" spans="7:37" hidden="1">
+    <row r="477" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
@@ -17436,7 +17424,7 @@
       <c r="AJ477" s="2"/>
       <c r="AK477" s="2"/>
     </row>
-    <row r="478" spans="7:37" hidden="1">
+    <row r="478" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
@@ -17469,7 +17457,7 @@
       <c r="AJ478" s="2"/>
       <c r="AK478" s="2"/>
     </row>
-    <row r="479" spans="7:37" hidden="1">
+    <row r="479" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
@@ -17502,7 +17490,7 @@
       <c r="AJ479" s="2"/>
       <c r="AK479" s="2"/>
     </row>
-    <row r="480" spans="7:37" hidden="1">
+    <row r="480" spans="7:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
@@ -17535,69 +17523,8 @@
       <c r="AJ480" s="2"/>
       <c r="AK480" s="2"/>
     </row>
-    <row r="481" hidden="1"/>
-    <row r="482" hidden="1"/>
-    <row r="483" hidden="1"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B4:AL5"/>
-    <mergeCell ref="B7:AL8"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="B12:AL12"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="Z61:AC61"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="B33:AL33"/>
-    <mergeCell ref="B40:AL40"/>
-    <mergeCell ref="B46:AL46"/>
-    <mergeCell ref="B52:AL52"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
     <mergeCell ref="AE59:AL59"/>
     <mergeCell ref="B59:E61"/>
     <mergeCell ref="B63:E63"/>
@@ -17613,6 +17540,64 @@
     <mergeCell ref="T61:W61"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T65:W65"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="B33:AL33"/>
+    <mergeCell ref="B40:AL40"/>
+    <mergeCell ref="B46:AL46"/>
+    <mergeCell ref="B52:AL52"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="B4:AL5"/>
+    <mergeCell ref="B7:AL8"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="B12:AL12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/employees_template.xlsx
+++ b/templates/employees_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63464978-75CE-43BB-984E-F4D976BC5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CDC129-1402-4F9A-9ACB-EB6A3564250B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2340" windowWidth="21645" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +201,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,12 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,6 +305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF69B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,19 +766,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,9 +791,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -804,10 +813,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -822,61 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -891,6 +849,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,40 +864,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -945,7 +909,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1035,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:AM480"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1414,179 +1414,179 @@
     <row r="2" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
     </row>
     <row r="8" spans="2:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-    </row>
-    <row r="9" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+    </row>
+    <row r="9" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
@@ -1618,16 +1618,16 @@
       <c r="AI10" s="39"/>
       <c r="AJ10" s="39"/>
       <c r="AK10" s="39"/>
-      <c r="AL10" s="49" t="s">
+      <c r="AL10" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -1659,55 +1659,55 @@
       <c r="AI11" s="40"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
-      <c r="AL11" s="50"/>
+      <c r="AL11" s="75"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="53"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1745,8 +1745,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1784,8 +1784,8 @@
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -1823,8 +1823,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1862,8 +1862,8 @@
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -1901,8 +1901,8 @@
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1940,8 +1940,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1979,8 +1979,8 @@
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -2018,8 +2018,8 @@
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -2057,8 +2057,8 @@
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2096,8 +2096,8 @@
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -2135,8 +2135,8 @@
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2174,8 +2174,8 @@
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -2213,8 +2213,8 @@
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -2252,8 +2252,8 @@
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -2291,8 +2291,8 @@
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2330,8 +2330,8 @@
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -2369,8 +2369,8 @@
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2408,8 +2408,8 @@
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -2447,8 +2447,8 @@
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -2483,52 +2483,52 @@
       <c r="AL32" s="21"/>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="57"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="73"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2566,8 +2566,8 @@
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2605,8 +2605,8 @@
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2644,8 +2644,8 @@
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2683,8 +2683,8 @@
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -2722,8 +2722,8 @@
       <c r="B39" s="5"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -2758,52 +2758,52 @@
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="53"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="73"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -2841,8 +2841,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -2880,8 +2880,8 @@
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -2919,8 +2919,8 @@
       <c r="B44" s="4"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -2958,8 +2958,8 @@
       <c r="B45" s="5"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -2994,52 +2994,52 @@
       <c r="AL45" s="12"/>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="53"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="73"/>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="67"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -3077,8 +3077,8 @@
       <c r="B48" s="4"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="65"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3116,8 +3116,8 @@
       <c r="B49" s="4"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -3155,8 +3155,8 @@
       <c r="B50" s="4"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="65"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3194,8 +3194,8 @@
       <c r="B51" s="5"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3230,52 +3230,52 @@
       <c r="AL51" s="12"/>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="53"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="72"/>
+      <c r="AH52" s="72"/>
+      <c r="AI52" s="72"/>
+      <c r="AJ52" s="72"/>
+      <c r="AK52" s="72"/>
+      <c r="AL52" s="73"/>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="67"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -3313,8 +3313,8 @@
       <c r="B54" s="4"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -3352,8 +3352,8 @@
       <c r="B55" s="4"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="65"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -3391,8 +3391,8 @@
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -3430,8 +3430,8 @@
       <c r="B57" s="5"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="84"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="69"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -3499,68 +3499,68 @@
       <c r="AK58" s="2"/>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="58"/>
       <c r="G59" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="54" t="s">
+      <c r="H59" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
       <c r="L59" s="1"/>
       <c r="M59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N59" s="54" t="s">
+      <c r="N59" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
       <c r="R59" s="1"/>
       <c r="S59" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T59" s="54" t="s">
+      <c r="T59" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" s="54" t="s">
+      <c r="Z59" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="68" t="s">
+      <c r="AE59" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AF59" s="69"/>
-      <c r="AG59" s="69"/>
-      <c r="AH59" s="69"/>
-      <c r="AI59" s="69"/>
-      <c r="AJ59" s="69"/>
-      <c r="AK59" s="69"/>
-      <c r="AL59" s="70"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="54"/>
+      <c r="AI59" s="54"/>
+      <c r="AJ59" s="54"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="55"/>
     </row>
     <row r="60" spans="2:38" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="61"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3595,47 +3595,47 @@
       <c r="AL60" s="37"/>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B61" s="74"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="76"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="54" t="s">
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
       <c r="L61" s="1"/>
       <c r="M61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="54" t="s">
+      <c r="N61" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
       <c r="R61" s="1"/>
       <c r="S61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="54" t="s">
+      <c r="T61" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z61" s="54" t="s">
+      <c r="Z61" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="2"/>
@@ -3685,51 +3685,51 @@
       <c r="AL62" s="37"/>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
       <c r="G63" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
       <c r="L63" s="1"/>
       <c r="M63" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="54" t="s">
+      <c r="N63" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
       <c r="R63" s="1"/>
       <c r="S63" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T63" s="54" t="s">
+      <c r="T63" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Z63" s="54" t="s">
+      <c r="Z63" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="2"/>
@@ -3779,45 +3779,45 @@
       <c r="AL64" s="37"/>
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67"/>
       <c r="G65" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
       <c r="L65" s="1"/>
       <c r="M65" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N65" s="54" t="s">
+      <c r="N65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
       <c r="R65" s="1"/>
       <c r="S65" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="T65" s="54" t="s">
+      <c r="T65" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="31"/>
-      <c r="Z65" s="85"/>
-      <c r="AA65" s="85"/>
-      <c r="AB65" s="85"/>
-      <c r="AC65" s="85"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="33"/>
@@ -17540,11 +17540,7 @@
     <mergeCell ref="T61:W61"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T65:W65"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H65:K65"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
@@ -17561,14 +17557,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="B33:AL33"/>
-    <mergeCell ref="B40:AL40"/>
-    <mergeCell ref="B46:AL46"/>
-    <mergeCell ref="B52:AL52"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -17577,13 +17565,25 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B33:AL33"/>
+    <mergeCell ref="B40:AL40"/>
+    <mergeCell ref="B46:AL46"/>
+    <mergeCell ref="B52:AL52"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="T59:W59"/>
     <mergeCell ref="Z59:AC59"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="Z61:AC61"/>
     <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="N59:Q59"/>
     <mergeCell ref="B4:AL5"/>
     <mergeCell ref="B7:AL8"/>
     <mergeCell ref="E21:F21"/>
